--- a/CodeQualityAssessor/jasml_0.10_metrics.xlsx
+++ b/CodeQualityAssessor/jasml_0.10_metrics.xlsx
@@ -1723,6 +1723,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1737,7 +1738,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1754,6 +1755,19 @@
         <fgColor indexed="10"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="53"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1767,11 +1781,71 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2094,13 +2168,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="17.109375" customWidth="1"/>
-    <col min="6" max="6" width="25.77734375" customWidth="1"/>
-    <col min="8" max="8" width="14.5546875" customWidth="1"/>
-    <col min="9" max="9" width="14.33203125" customWidth="1"/>
-    <col min="10" max="10" width="24.33203125" customWidth="1"/>
-    <col min="11" max="11" width="21.77734375" customWidth="1"/>
-    <col min="12" max="12" width="18.44140625" customWidth="1"/>
+    <col min="5" max="5" customWidth="true" width="17.109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="25.77734375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="14.5546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.33203125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="24.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="21.77734375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="18.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
@@ -2510,7 +2584,7 @@
       <c r="G12" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="H12" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I12" t="s">
@@ -2519,7 +2593,7 @@
       <c r="J12" t="s">
         <v>11</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="K12" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2545,7 +2619,7 @@
       <c r="G13" t="s">
         <v>11</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="H13" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I13" t="s">
@@ -2554,7 +2628,7 @@
       <c r="J13" t="s">
         <v>11</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="K13" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2580,7 +2654,7 @@
       <c r="G14" t="s">
         <v>11</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="H14" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I14" t="s">
@@ -2589,7 +2663,7 @@
       <c r="J14" t="s">
         <v>11</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="K14" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2615,7 +2689,7 @@
       <c r="G15" t="s">
         <v>11</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="H15" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I15" t="s">
@@ -2624,7 +2698,7 @@
       <c r="J15" t="s">
         <v>11</v>
       </c>
-      <c r="K15" s="2" t="s">
+      <c r="K15" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2650,7 +2724,7 @@
       <c r="G16" t="s">
         <v>15</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="H16" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I16" t="s">
@@ -2659,7 +2733,7 @@
       <c r="J16" t="s">
         <v>11</v>
       </c>
-      <c r="K16" s="2" t="s">
+      <c r="K16" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2685,7 +2759,7 @@
       <c r="G17" t="s">
         <v>15</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="H17" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I17" t="s">
@@ -2694,7 +2768,7 @@
       <c r="J17" t="s">
         <v>11</v>
       </c>
-      <c r="K17" s="2" t="s">
+      <c r="K17" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2720,7 +2794,7 @@
       <c r="G18" t="s">
         <v>11</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="H18" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I18" t="s">
@@ -2729,7 +2803,7 @@
       <c r="J18" t="s">
         <v>11</v>
       </c>
-      <c r="K18" s="2" t="s">
+      <c r="K18" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2755,7 +2829,7 @@
       <c r="G19" t="s">
         <v>15</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="H19" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I19" t="s">
@@ -2764,7 +2838,7 @@
       <c r="J19" t="s">
         <v>11</v>
       </c>
-      <c r="K19" s="2" t="s">
+      <c r="K19" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2790,7 +2864,7 @@
       <c r="G20" t="s">
         <v>15</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="H20" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I20" t="s">
@@ -2799,7 +2873,7 @@
       <c r="J20" t="s">
         <v>11</v>
       </c>
-      <c r="K20" s="2" t="s">
+      <c r="K20" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2825,7 +2899,7 @@
       <c r="G21" t="s">
         <v>23</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="H21" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I21" t="s">
@@ -2834,7 +2908,7 @@
       <c r="J21" t="s">
         <v>11</v>
       </c>
-      <c r="K21" s="2" t="s">
+      <c r="K21" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2860,7 +2934,7 @@
       <c r="G22" t="s">
         <v>23</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="H22" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I22" t="s">
@@ -2869,7 +2943,7 @@
       <c r="J22" t="s">
         <v>11</v>
       </c>
-      <c r="K22" s="2" t="s">
+      <c r="K22" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2895,7 +2969,7 @@
       <c r="G23" t="s">
         <v>23</v>
       </c>
-      <c r="H23" s="2" t="s">
+      <c r="H23" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I23" t="s">
@@ -2904,7 +2978,7 @@
       <c r="J23" t="s">
         <v>11</v>
       </c>
-      <c r="K23" s="2" t="s">
+      <c r="K23" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2930,7 +3004,7 @@
       <c r="G24" t="s">
         <v>23</v>
       </c>
-      <c r="H24" s="2" t="s">
+      <c r="H24" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I24" t="s">
@@ -2939,7 +3013,7 @@
       <c r="J24" t="s">
         <v>29</v>
       </c>
-      <c r="K24" s="2" t="s">
+      <c r="K24" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2965,7 +3039,7 @@
       <c r="G25" t="s">
         <v>11</v>
       </c>
-      <c r="H25" s="2" t="s">
+      <c r="H25" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I25" t="s">
@@ -2974,7 +3048,7 @@
       <c r="J25" t="s">
         <v>11</v>
       </c>
-      <c r="K25" s="2" t="s">
+      <c r="K25" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3000,7 +3074,7 @@
       <c r="G26" t="s">
         <v>15</v>
       </c>
-      <c r="H26" s="2" t="s">
+      <c r="H26" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I26" t="s">
@@ -3009,7 +3083,7 @@
       <c r="J26" t="s">
         <v>11</v>
       </c>
-      <c r="K26" s="2" t="s">
+      <c r="K26" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3035,7 +3109,7 @@
       <c r="G27" t="s">
         <v>15</v>
       </c>
-      <c r="H27" s="2" t="s">
+      <c r="H27" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I27" t="s">
@@ -3044,7 +3118,7 @@
       <c r="J27" t="s">
         <v>11</v>
       </c>
-      <c r="K27" s="2" t="s">
+      <c r="K27" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3070,7 +3144,7 @@
       <c r="G28" t="s">
         <v>11</v>
       </c>
-      <c r="H28" s="2" t="s">
+      <c r="H28" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I28" t="s">
@@ -3079,7 +3153,7 @@
       <c r="J28" t="s">
         <v>11</v>
       </c>
-      <c r="K28" s="2" t="s">
+      <c r="K28" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3105,7 +3179,7 @@
       <c r="G29" t="s">
         <v>11</v>
       </c>
-      <c r="H29" s="2" t="s">
+      <c r="H29" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I29" t="s">
@@ -3114,7 +3188,7 @@
       <c r="J29" t="s">
         <v>11</v>
       </c>
-      <c r="K29" s="2" t="s">
+      <c r="K29" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3140,7 +3214,7 @@
       <c r="G30" t="s">
         <v>11</v>
       </c>
-      <c r="H30" s="2" t="s">
+      <c r="H30" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I30" t="s">
@@ -3149,7 +3223,7 @@
       <c r="J30" t="s">
         <v>11</v>
       </c>
-      <c r="K30" s="2" t="s">
+      <c r="K30" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3175,7 +3249,7 @@
       <c r="G31" t="s">
         <v>15</v>
       </c>
-      <c r="H31" s="2" t="s">
+      <c r="H31" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I31" t="s">
@@ -3184,7 +3258,7 @@
       <c r="J31" t="s">
         <v>11</v>
       </c>
-      <c r="K31" s="2" t="s">
+      <c r="K31" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3210,7 +3284,7 @@
       <c r="G32" t="s">
         <v>15</v>
       </c>
-      <c r="H32" s="2" t="s">
+      <c r="H32" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I32" t="s">
@@ -3219,7 +3293,7 @@
       <c r="J32" t="s">
         <v>11</v>
       </c>
-      <c r="K32" s="2" t="s">
+      <c r="K32" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3245,7 +3319,7 @@
       <c r="G33" t="s">
         <v>15</v>
       </c>
-      <c r="H33" s="2" t="s">
+      <c r="H33" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I33" t="s">
@@ -3254,7 +3328,7 @@
       <c r="J33" t="s">
         <v>11</v>
       </c>
-      <c r="K33" s="2" t="s">
+      <c r="K33" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3280,7 +3354,7 @@
       <c r="G34" t="s">
         <v>15</v>
       </c>
-      <c r="H34" s="2" t="s">
+      <c r="H34" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I34" t="s">
@@ -3289,7 +3363,7 @@
       <c r="J34" t="s">
         <v>11</v>
       </c>
-      <c r="K34" s="2" t="s">
+      <c r="K34" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3315,7 +3389,7 @@
       <c r="G35" t="s">
         <v>11</v>
       </c>
-      <c r="H35" s="2" t="s">
+      <c r="H35" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I35" t="s">
@@ -3324,7 +3398,7 @@
       <c r="J35" t="s">
         <v>11</v>
       </c>
-      <c r="K35" s="2" t="s">
+      <c r="K35" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3350,7 +3424,7 @@
       <c r="G36" t="s">
         <v>11</v>
       </c>
-      <c r="H36" s="2" t="s">
+      <c r="H36" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I36" t="s">
@@ -3359,7 +3433,7 @@
       <c r="J36" t="s">
         <v>11</v>
       </c>
-      <c r="K36" s="2" t="s">
+      <c r="K36" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3385,7 +3459,7 @@
       <c r="G37" t="s">
         <v>11</v>
       </c>
-      <c r="H37" s="2" t="s">
+      <c r="H37" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I37" t="s">
@@ -3394,7 +3468,7 @@
       <c r="J37" t="s">
         <v>11</v>
       </c>
-      <c r="K37" s="2" t="s">
+      <c r="K37" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3420,7 +3494,7 @@
       <c r="G38" t="s">
         <v>15</v>
       </c>
-      <c r="H38" s="2" t="s">
+      <c r="H38" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I38" t="s">
@@ -3429,7 +3503,7 @@
       <c r="J38" t="s">
         <v>11</v>
       </c>
-      <c r="K38" s="2" t="s">
+      <c r="K38" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3455,7 +3529,7 @@
       <c r="G39" t="s">
         <v>15</v>
       </c>
-      <c r="H39" s="2" t="s">
+      <c r="H39" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I39" t="s">
@@ -3464,7 +3538,7 @@
       <c r="J39" t="s">
         <v>11</v>
       </c>
-      <c r="K39" s="2" t="s">
+      <c r="K39" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3490,7 +3564,7 @@
       <c r="G40" t="s">
         <v>15</v>
       </c>
-      <c r="H40" s="2" t="s">
+      <c r="H40" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I40" t="s">
@@ -3499,7 +3573,7 @@
       <c r="J40" t="s">
         <v>11</v>
       </c>
-      <c r="K40" s="2" t="s">
+      <c r="K40" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3525,7 +3599,7 @@
       <c r="G41" t="s">
         <v>15</v>
       </c>
-      <c r="H41" s="2" t="s">
+      <c r="H41" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I41" t="s">
@@ -3534,7 +3608,7 @@
       <c r="J41" t="s">
         <v>11</v>
       </c>
-      <c r="K41" s="2" t="s">
+      <c r="K41" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3560,7 +3634,7 @@
       <c r="G42" t="s">
         <v>15</v>
       </c>
-      <c r="H42" s="2" t="s">
+      <c r="H42" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I42" t="s">
@@ -3569,7 +3643,7 @@
       <c r="J42" t="s">
         <v>11</v>
       </c>
-      <c r="K42" s="2" t="s">
+      <c r="K42" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3595,7 +3669,7 @@
       <c r="G43" t="s">
         <v>15</v>
       </c>
-      <c r="H43" s="2" t="s">
+      <c r="H43" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I43" t="s">
@@ -3604,7 +3678,7 @@
       <c r="J43" t="s">
         <v>11</v>
       </c>
-      <c r="K43" s="2" t="s">
+      <c r="K43" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3630,7 +3704,7 @@
       <c r="G44" t="s">
         <v>15</v>
       </c>
-      <c r="H44" s="2" t="s">
+      <c r="H44" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I44" t="s">
@@ -3639,7 +3713,7 @@
       <c r="J44" t="s">
         <v>11</v>
       </c>
-      <c r="K44" s="2" t="s">
+      <c r="K44" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3665,7 +3739,7 @@
       <c r="G45" t="s">
         <v>15</v>
       </c>
-      <c r="H45" s="2" t="s">
+      <c r="H45" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I45" t="s">
@@ -3674,7 +3748,7 @@
       <c r="J45" t="s">
         <v>11</v>
       </c>
-      <c r="K45" s="2" t="s">
+      <c r="K45" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3700,7 +3774,7 @@
       <c r="G46" t="s">
         <v>11</v>
       </c>
-      <c r="H46" s="2" t="s">
+      <c r="H46" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I46" t="s">
@@ -3709,7 +3783,7 @@
       <c r="J46" t="s">
         <v>11</v>
       </c>
-      <c r="K46" s="2" t="s">
+      <c r="K46" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3735,7 +3809,7 @@
       <c r="G47" t="s">
         <v>15</v>
       </c>
-      <c r="H47" s="2" t="s">
+      <c r="H47" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I47" t="s">
@@ -3744,7 +3818,7 @@
       <c r="J47" t="s">
         <v>11</v>
       </c>
-      <c r="K47" s="2" t="s">
+      <c r="K47" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3770,7 +3844,7 @@
       <c r="G48" t="s">
         <v>15</v>
       </c>
-      <c r="H48" s="2" t="s">
+      <c r="H48" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I48" t="s">
@@ -3779,7 +3853,7 @@
       <c r="J48" t="s">
         <v>11</v>
       </c>
-      <c r="K48" s="2" t="s">
+      <c r="K48" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3805,7 +3879,7 @@
       <c r="G49" t="s">
         <v>15</v>
       </c>
-      <c r="H49" s="2" t="s">
+      <c r="H49" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I49" t="s">
@@ -3814,7 +3888,7 @@
       <c r="J49" t="s">
         <v>11</v>
       </c>
-      <c r="K49" s="2" t="s">
+      <c r="K49" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3840,7 +3914,7 @@
       <c r="G50" t="s">
         <v>15</v>
       </c>
-      <c r="H50" s="2" t="s">
+      <c r="H50" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I50" t="s">
@@ -3849,7 +3923,7 @@
       <c r="J50" t="s">
         <v>11</v>
       </c>
-      <c r="K50" s="2" t="s">
+      <c r="K50" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3875,7 +3949,7 @@
       <c r="G51" t="s">
         <v>11</v>
       </c>
-      <c r="H51" s="2" t="s">
+      <c r="H51" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I51" t="s">
@@ -3884,7 +3958,7 @@
       <c r="J51" t="s">
         <v>11</v>
       </c>
-      <c r="K51" s="2" t="s">
+      <c r="K51" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3910,7 +3984,7 @@
       <c r="G52" t="s">
         <v>15</v>
       </c>
-      <c r="H52" s="2" t="s">
+      <c r="H52" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I52" t="s">
@@ -3919,7 +3993,7 @@
       <c r="J52" t="s">
         <v>11</v>
       </c>
-      <c r="K52" s="2" t="s">
+      <c r="K52" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3945,7 +4019,7 @@
       <c r="G53" t="s">
         <v>15</v>
       </c>
-      <c r="H53" s="2" t="s">
+      <c r="H53" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I53" t="s">
@@ -3954,7 +4028,7 @@
       <c r="J53" t="s">
         <v>11</v>
       </c>
-      <c r="K53" s="2" t="s">
+      <c r="K53" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3980,7 +4054,7 @@
       <c r="G54" t="s">
         <v>11</v>
       </c>
-      <c r="H54" s="2" t="s">
+      <c r="H54" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I54" t="s">
@@ -3989,7 +4063,7 @@
       <c r="J54" t="s">
         <v>11</v>
       </c>
-      <c r="K54" s="2" t="s">
+      <c r="K54" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4015,7 +4089,7 @@
       <c r="G55" t="s">
         <v>15</v>
       </c>
-      <c r="H55" s="2" t="s">
+      <c r="H55" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I55" t="s">
@@ -4024,7 +4098,7 @@
       <c r="J55" t="s">
         <v>11</v>
       </c>
-      <c r="K55" s="2" t="s">
+      <c r="K55" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4050,7 +4124,7 @@
       <c r="G56" t="s">
         <v>15</v>
       </c>
-      <c r="H56" s="2" t="s">
+      <c r="H56" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I56" t="s">
@@ -4059,7 +4133,7 @@
       <c r="J56" t="s">
         <v>11</v>
       </c>
-      <c r="K56" s="2" t="s">
+      <c r="K56" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4085,7 +4159,7 @@
       <c r="G57" t="s">
         <v>19</v>
       </c>
-      <c r="H57" s="2" t="s">
+      <c r="H57" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I57" t="s">
@@ -4094,7 +4168,7 @@
       <c r="J57" t="s">
         <v>11</v>
       </c>
-      <c r="K57" s="2" t="s">
+      <c r="K57" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4120,7 +4194,7 @@
       <c r="G58" t="s">
         <v>19</v>
       </c>
-      <c r="H58" s="2" t="s">
+      <c r="H58" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I58" t="s">
@@ -4129,7 +4203,7 @@
       <c r="J58" t="s">
         <v>11</v>
       </c>
-      <c r="K58" s="2" t="s">
+      <c r="K58" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4155,7 +4229,7 @@
       <c r="G59" t="s">
         <v>19</v>
       </c>
-      <c r="H59" s="2" t="s">
+      <c r="H59" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I59" t="s">
@@ -4164,7 +4238,7 @@
       <c r="J59" t="s">
         <v>11</v>
       </c>
-      <c r="K59" s="2" t="s">
+      <c r="K59" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4190,7 +4264,7 @@
       <c r="G60" t="s">
         <v>159</v>
       </c>
-      <c r="H60" s="2" t="s">
+      <c r="H60" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I60" t="s">
@@ -4199,7 +4273,7 @@
       <c r="J60" t="s">
         <v>11</v>
       </c>
-      <c r="K60" s="2" t="s">
+      <c r="K60" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4225,7 +4299,7 @@
       <c r="G61" t="s">
         <v>159</v>
       </c>
-      <c r="H61" s="2" t="s">
+      <c r="H61" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I61" t="s">
@@ -4234,7 +4308,7 @@
       <c r="J61" t="s">
         <v>11</v>
       </c>
-      <c r="K61" s="2" t="s">
+      <c r="K61" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4260,7 +4334,7 @@
       <c r="G62" t="s">
         <v>159</v>
       </c>
-      <c r="H62" s="2" t="s">
+      <c r="H62" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I62" t="s">
@@ -4269,7 +4343,7 @@
       <c r="J62" t="s">
         <v>11</v>
       </c>
-      <c r="K62" s="2" t="s">
+      <c r="K62" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4295,7 +4369,7 @@
       <c r="G63" t="s">
         <v>159</v>
       </c>
-      <c r="H63" s="2" t="s">
+      <c r="H63" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I63" t="s">
@@ -4304,7 +4378,7 @@
       <c r="J63" t="s">
         <v>11</v>
       </c>
-      <c r="K63" s="2" t="s">
+      <c r="K63" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4330,7 +4404,7 @@
       <c r="G64" t="s">
         <v>159</v>
       </c>
-      <c r="H64" s="2" t="s">
+      <c r="H64" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I64" t="s">
@@ -4339,7 +4413,7 @@
       <c r="J64" t="s">
         <v>11</v>
       </c>
-      <c r="K64" s="2" t="s">
+      <c r="K64" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4365,7 +4439,7 @@
       <c r="G65" t="s">
         <v>159</v>
       </c>
-      <c r="H65" s="2" t="s">
+      <c r="H65" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I65" t="s">
@@ -4374,7 +4448,7 @@
       <c r="J65" t="s">
         <v>11</v>
       </c>
-      <c r="K65" s="2" t="s">
+      <c r="K65" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4400,7 +4474,7 @@
       <c r="G66" t="s">
         <v>159</v>
       </c>
-      <c r="H66" s="2" t="s">
+      <c r="H66" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I66" t="s">
@@ -4409,7 +4483,7 @@
       <c r="J66" t="s">
         <v>19</v>
       </c>
-      <c r="K66" s="2" t="s">
+      <c r="K66" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4435,7 +4509,7 @@
       <c r="G67" t="s">
         <v>159</v>
       </c>
-      <c r="H67" s="2" t="s">
+      <c r="H67" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I67" t="s">
@@ -4444,7 +4518,7 @@
       <c r="J67" t="s">
         <v>19</v>
       </c>
-      <c r="K67" s="2" t="s">
+      <c r="K67" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4470,7 +4544,7 @@
       <c r="G68" t="s">
         <v>159</v>
       </c>
-      <c r="H68" s="2" t="s">
+      <c r="H68" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I68" t="s">
@@ -4479,7 +4553,7 @@
       <c r="J68" t="s">
         <v>26</v>
       </c>
-      <c r="K68" s="2" t="s">
+      <c r="K68" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4505,7 +4579,7 @@
       <c r="G69" t="s">
         <v>159</v>
       </c>
-      <c r="H69" s="2" t="s">
+      <c r="H69" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I69" t="s">
@@ -4514,7 +4588,7 @@
       <c r="J69" t="s">
         <v>19</v>
       </c>
-      <c r="K69" s="2" t="s">
+      <c r="K69" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4540,7 +4614,7 @@
       <c r="G70" t="s">
         <v>159</v>
       </c>
-      <c r="H70" s="2" t="s">
+      <c r="H70" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I70" t="s">
@@ -4549,7 +4623,7 @@
       <c r="J70" t="s">
         <v>23</v>
       </c>
-      <c r="K70" s="2" t="s">
+      <c r="K70" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4575,7 +4649,7 @@
       <c r="G71" t="s">
         <v>159</v>
       </c>
-      <c r="H71" s="2" t="s">
+      <c r="H71" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I71" t="s">
@@ -4584,7 +4658,7 @@
       <c r="J71" t="s">
         <v>60</v>
       </c>
-      <c r="K71" s="3" t="s">
+      <c r="K71" s="63" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4610,7 +4684,7 @@
       <c r="G72" t="s">
         <v>159</v>
       </c>
-      <c r="H72" s="2" t="s">
+      <c r="H72" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I72" t="s">
@@ -4619,7 +4693,7 @@
       <c r="J72" t="s">
         <v>18</v>
       </c>
-      <c r="K72" s="3" t="s">
+      <c r="K72" s="63" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4645,7 +4719,7 @@
       <c r="G73" t="s">
         <v>159</v>
       </c>
-      <c r="H73" s="2" t="s">
+      <c r="H73" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I73" t="s">
@@ -4654,7 +4728,7 @@
       <c r="J73" t="s">
         <v>11</v>
       </c>
-      <c r="K73" s="2" t="s">
+      <c r="K73" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4680,7 +4754,7 @@
       <c r="G74" t="s">
         <v>159</v>
       </c>
-      <c r="H74" s="2" t="s">
+      <c r="H74" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I74" t="s">
@@ -4689,7 +4763,7 @@
       <c r="J74" t="s">
         <v>11</v>
       </c>
-      <c r="K74" s="2" t="s">
+      <c r="K74" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4715,7 +4789,7 @@
       <c r="G75" t="s">
         <v>159</v>
       </c>
-      <c r="H75" s="2" t="s">
+      <c r="H75" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I75" t="s">
@@ -4724,7 +4798,7 @@
       <c r="J75" t="s">
         <v>11</v>
       </c>
-      <c r="K75" s="2" t="s">
+      <c r="K75" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4750,7 +4824,7 @@
       <c r="G76" t="s">
         <v>159</v>
       </c>
-      <c r="H76" s="2" t="s">
+      <c r="H76" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I76" t="s">
@@ -4759,7 +4833,7 @@
       <c r="J76" t="s">
         <v>11</v>
       </c>
-      <c r="K76" s="2" t="s">
+      <c r="K76" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4785,7 +4859,7 @@
       <c r="G77" t="s">
         <v>159</v>
       </c>
-      <c r="H77" s="2" t="s">
+      <c r="H77" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I77" t="s">
@@ -4794,7 +4868,7 @@
       <c r="J77" t="s">
         <v>18</v>
       </c>
-      <c r="K77" s="3" t="s">
+      <c r="K77" s="63" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4820,7 +4894,7 @@
       <c r="G78" t="s">
         <v>159</v>
       </c>
-      <c r="H78" s="2" t="s">
+      <c r="H78" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I78" t="s">
@@ -4829,7 +4903,7 @@
       <c r="J78" t="s">
         <v>11</v>
       </c>
-      <c r="K78" s="2" t="s">
+      <c r="K78" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4855,7 +4929,7 @@
       <c r="G79" t="s">
         <v>159</v>
       </c>
-      <c r="H79" s="2" t="s">
+      <c r="H79" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I79" t="s">
@@ -4864,7 +4938,7 @@
       <c r="J79" t="s">
         <v>11</v>
       </c>
-      <c r="K79" s="2" t="s">
+      <c r="K79" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4890,7 +4964,7 @@
       <c r="G80" t="s">
         <v>159</v>
       </c>
-      <c r="H80" s="2" t="s">
+      <c r="H80" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I80" t="s">
@@ -4899,7 +4973,7 @@
       <c r="J80" t="s">
         <v>11</v>
       </c>
-      <c r="K80" s="2" t="s">
+      <c r="K80" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4925,7 +4999,7 @@
       <c r="G81" t="s">
         <v>159</v>
       </c>
-      <c r="H81" s="2" t="s">
+      <c r="H81" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I81" t="s">
@@ -4934,7 +5008,7 @@
       <c r="J81" t="s">
         <v>11</v>
       </c>
-      <c r="K81" s="2" t="s">
+      <c r="K81" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4960,7 +5034,7 @@
       <c r="G82" t="s">
         <v>159</v>
       </c>
-      <c r="H82" s="2" t="s">
+      <c r="H82" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I82" t="s">
@@ -4969,7 +5043,7 @@
       <c r="J82" t="s">
         <v>11</v>
       </c>
-      <c r="K82" s="2" t="s">
+      <c r="K82" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4995,7 +5069,7 @@
       <c r="G83" t="s">
         <v>159</v>
       </c>
-      <c r="H83" s="2" t="s">
+      <c r="H83" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I83" t="s">
@@ -5004,7 +5078,7 @@
       <c r="J83" t="s">
         <v>11</v>
       </c>
-      <c r="K83" s="2" t="s">
+      <c r="K83" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5030,7 +5104,7 @@
       <c r="G84" t="s">
         <v>159</v>
       </c>
-      <c r="H84" s="2" t="s">
+      <c r="H84" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I84" t="s">
@@ -5039,7 +5113,7 @@
       <c r="J84" t="s">
         <v>11</v>
       </c>
-      <c r="K84" s="2" t="s">
+      <c r="K84" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5065,7 +5139,7 @@
       <c r="G85" t="s">
         <v>159</v>
       </c>
-      <c r="H85" s="2" t="s">
+      <c r="H85" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I85" t="s">
@@ -5074,7 +5148,7 @@
       <c r="J85" t="s">
         <v>45</v>
       </c>
-      <c r="K85" s="2" t="s">
+      <c r="K85" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5100,7 +5174,7 @@
       <c r="G86" t="s">
         <v>159</v>
       </c>
-      <c r="H86" s="2" t="s">
+      <c r="H86" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I86" t="s">
@@ -5109,7 +5183,7 @@
       <c r="J86" t="s">
         <v>28</v>
       </c>
-      <c r="K86" s="2" t="s">
+      <c r="K86" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5135,7 +5209,7 @@
       <c r="G87" t="s">
         <v>159</v>
       </c>
-      <c r="H87" s="2" t="s">
+      <c r="H87" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I87" t="s">
@@ -5144,7 +5218,7 @@
       <c r="J87" t="s">
         <v>45</v>
       </c>
-      <c r="K87" s="2" t="s">
+      <c r="K87" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5170,7 +5244,7 @@
       <c r="G88" t="s">
         <v>159</v>
       </c>
-      <c r="H88" s="2" t="s">
+      <c r="H88" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I88" t="s">
@@ -5179,7 +5253,7 @@
       <c r="J88" t="s">
         <v>119</v>
       </c>
-      <c r="K88" s="3" t="s">
+      <c r="K88" s="63" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5205,7 +5279,7 @@
       <c r="G89" t="s">
         <v>159</v>
       </c>
-      <c r="H89" s="2" t="s">
+      <c r="H89" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I89" t="s">
@@ -5214,7 +5288,7 @@
       <c r="J89" t="s">
         <v>19</v>
       </c>
-      <c r="K89" s="2" t="s">
+      <c r="K89" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5240,7 +5314,7 @@
       <c r="G90" t="s">
         <v>159</v>
       </c>
-      <c r="H90" s="2" t="s">
+      <c r="H90" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I90" t="s">
@@ -5249,7 +5323,7 @@
       <c r="J90" t="s">
         <v>11</v>
       </c>
-      <c r="K90" s="2" t="s">
+      <c r="K90" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5275,7 +5349,7 @@
       <c r="G91" t="s">
         <v>224</v>
       </c>
-      <c r="H91" s="2" t="s">
+      <c r="H91" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I91" t="s">
@@ -5284,7 +5358,7 @@
       <c r="J91" t="s">
         <v>11</v>
       </c>
-      <c r="K91" s="2" t="s">
+      <c r="K91" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5310,7 +5384,7 @@
       <c r="G92" t="s">
         <v>224</v>
       </c>
-      <c r="H92" s="2" t="s">
+      <c r="H92" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I92" t="s">
@@ -5319,7 +5393,7 @@
       <c r="J92" t="s">
         <v>11</v>
       </c>
-      <c r="K92" s="2" t="s">
+      <c r="K92" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5345,7 +5419,7 @@
       <c r="G93" t="s">
         <v>224</v>
       </c>
-      <c r="H93" s="2" t="s">
+      <c r="H93" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I93" t="s">
@@ -5354,7 +5428,7 @@
       <c r="J93" t="s">
         <v>11</v>
       </c>
-      <c r="K93" s="2" t="s">
+      <c r="K93" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5380,7 +5454,7 @@
       <c r="G94" t="s">
         <v>224</v>
       </c>
-      <c r="H94" s="2" t="s">
+      <c r="H94" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I94" t="s">
@@ -5389,7 +5463,7 @@
       <c r="J94" t="s">
         <v>11</v>
       </c>
-      <c r="K94" s="2" t="s">
+      <c r="K94" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5415,7 +5489,7 @@
       <c r="G95" t="s">
         <v>224</v>
       </c>
-      <c r="H95" s="2" t="s">
+      <c r="H95" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I95" t="s">
@@ -5424,7 +5498,7 @@
       <c r="J95" t="s">
         <v>54</v>
       </c>
-      <c r="K95" s="3" t="s">
+      <c r="K95" s="63" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5450,7 +5524,7 @@
       <c r="G96" t="s">
         <v>224</v>
       </c>
-      <c r="H96" s="2" t="s">
+      <c r="H96" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I96" t="s">
@@ -5459,7 +5533,7 @@
       <c r="J96" t="s">
         <v>11</v>
       </c>
-      <c r="K96" s="2" t="s">
+      <c r="K96" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5485,7 +5559,7 @@
       <c r="G97" t="s">
         <v>224</v>
       </c>
-      <c r="H97" s="2" t="s">
+      <c r="H97" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I97" t="s">
@@ -5494,7 +5568,7 @@
       <c r="J97" t="s">
         <v>11</v>
       </c>
-      <c r="K97" s="2" t="s">
+      <c r="K97" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5520,7 +5594,7 @@
       <c r="G98" t="s">
         <v>224</v>
       </c>
-      <c r="H98" s="2" t="s">
+      <c r="H98" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I98" t="s">
@@ -5529,7 +5603,7 @@
       <c r="J98" t="s">
         <v>11</v>
       </c>
-      <c r="K98" s="2" t="s">
+      <c r="K98" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5555,7 +5629,7 @@
       <c r="G99" t="s">
         <v>224</v>
       </c>
-      <c r="H99" s="2" t="s">
+      <c r="H99" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I99" t="s">
@@ -5564,7 +5638,7 @@
       <c r="J99" t="s">
         <v>19</v>
       </c>
-      <c r="K99" s="2" t="s">
+      <c r="K99" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5590,7 +5664,7 @@
       <c r="G100" t="s">
         <v>224</v>
       </c>
-      <c r="H100" s="2" t="s">
+      <c r="H100" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I100" t="s">
@@ -5599,7 +5673,7 @@
       <c r="J100" t="s">
         <v>19</v>
       </c>
-      <c r="K100" s="2" t="s">
+      <c r="K100" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5625,7 +5699,7 @@
       <c r="G101" t="s">
         <v>224</v>
       </c>
-      <c r="H101" s="2" t="s">
+      <c r="H101" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I101" t="s">
@@ -5634,7 +5708,7 @@
       <c r="J101" t="s">
         <v>19</v>
       </c>
-      <c r="K101" s="2" t="s">
+      <c r="K101" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5660,7 +5734,7 @@
       <c r="G102" t="s">
         <v>224</v>
       </c>
-      <c r="H102" s="2" t="s">
+      <c r="H102" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I102" t="s">
@@ -5669,7 +5743,7 @@
       <c r="J102" t="s">
         <v>19</v>
       </c>
-      <c r="K102" s="2" t="s">
+      <c r="K102" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5695,7 +5769,7 @@
       <c r="G103" t="s">
         <v>224</v>
       </c>
-      <c r="H103" s="2" t="s">
+      <c r="H103" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I103" t="s">
@@ -5704,7 +5778,7 @@
       <c r="J103" t="s">
         <v>19</v>
       </c>
-      <c r="K103" s="2" t="s">
+      <c r="K103" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5730,7 +5804,7 @@
       <c r="G104" t="s">
         <v>224</v>
       </c>
-      <c r="H104" s="2" t="s">
+      <c r="H104" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I104" t="s">
@@ -5739,7 +5813,7 @@
       <c r="J104" t="s">
         <v>19</v>
       </c>
-      <c r="K104" s="2" t="s">
+      <c r="K104" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5765,7 +5839,7 @@
       <c r="G105" t="s">
         <v>224</v>
       </c>
-      <c r="H105" s="2" t="s">
+      <c r="H105" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I105" t="s">
@@ -5774,7 +5848,7 @@
       <c r="J105" t="s">
         <v>16</v>
       </c>
-      <c r="K105" s="3" t="s">
+      <c r="K105" s="63" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5800,7 +5874,7 @@
       <c r="G106" t="s">
         <v>224</v>
       </c>
-      <c r="H106" s="2" t="s">
+      <c r="H106" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I106" t="s">
@@ -5809,7 +5883,7 @@
       <c r="J106" t="s">
         <v>11</v>
       </c>
-      <c r="K106" s="2" t="s">
+      <c r="K106" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5835,7 +5909,7 @@
       <c r="G107" t="s">
         <v>224</v>
       </c>
-      <c r="H107" s="2" t="s">
+      <c r="H107" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I107" t="s">
@@ -5844,7 +5918,7 @@
       <c r="J107" t="s">
         <v>11</v>
       </c>
-      <c r="K107" s="2" t="s">
+      <c r="K107" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5870,7 +5944,7 @@
       <c r="G108" t="s">
         <v>224</v>
       </c>
-      <c r="H108" s="2" t="s">
+      <c r="H108" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I108" t="s">
@@ -5879,7 +5953,7 @@
       <c r="J108" t="s">
         <v>11</v>
       </c>
-      <c r="K108" s="2" t="s">
+      <c r="K108" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5905,7 +5979,7 @@
       <c r="G109" t="s">
         <v>224</v>
       </c>
-      <c r="H109" s="2" t="s">
+      <c r="H109" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I109" t="s">
@@ -5914,7 +5988,7 @@
       <c r="J109" t="s">
         <v>11</v>
       </c>
-      <c r="K109" s="2" t="s">
+      <c r="K109" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5940,7 +6014,7 @@
       <c r="G110" t="s">
         <v>224</v>
       </c>
-      <c r="H110" s="2" t="s">
+      <c r="H110" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I110" t="s">
@@ -5949,7 +6023,7 @@
       <c r="J110" t="s">
         <v>74</v>
       </c>
-      <c r="K110" s="3" t="s">
+      <c r="K110" s="63" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5975,7 +6049,7 @@
       <c r="G111" t="s">
         <v>224</v>
       </c>
-      <c r="H111" s="2" t="s">
+      <c r="H111" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I111" t="s">
@@ -5984,7 +6058,7 @@
       <c r="J111" t="s">
         <v>11</v>
       </c>
-      <c r="K111" s="2" t="s">
+      <c r="K111" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6010,7 +6084,7 @@
       <c r="G112" t="s">
         <v>15</v>
       </c>
-      <c r="H112" s="2" t="s">
+      <c r="H112" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I112" t="s">
@@ -6019,7 +6093,7 @@
       <c r="J112" t="s">
         <v>11</v>
       </c>
-      <c r="K112" s="2" t="s">
+      <c r="K112" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6045,7 +6119,7 @@
       <c r="G113" t="s">
         <v>15</v>
       </c>
-      <c r="H113" s="2" t="s">
+      <c r="H113" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I113" t="s">
@@ -6054,7 +6128,7 @@
       <c r="J113" t="s">
         <v>11</v>
       </c>
-      <c r="K113" s="2" t="s">
+      <c r="K113" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6080,7 +6154,7 @@
       <c r="G114" t="s">
         <v>275</v>
       </c>
-      <c r="H114" s="3" t="s">
+      <c r="H114" s="63" t="s">
         <v>17</v>
       </c>
       <c r="I114" t="s">
@@ -6089,7 +6163,7 @@
       <c r="J114" t="s">
         <v>29</v>
       </c>
-      <c r="K114" s="2" t="s">
+      <c r="K114" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6115,7 +6189,7 @@
       <c r="G115" t="s">
         <v>275</v>
       </c>
-      <c r="H115" s="3" t="s">
+      <c r="H115" s="63" t="s">
         <v>17</v>
       </c>
       <c r="I115" t="s">
@@ -6124,7 +6198,7 @@
       <c r="J115" t="s">
         <v>32</v>
       </c>
-      <c r="K115" s="2" t="s">
+      <c r="K115" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6150,7 +6224,7 @@
       <c r="G116" t="s">
         <v>275</v>
       </c>
-      <c r="H116" s="3" t="s">
+      <c r="H116" s="63" t="s">
         <v>17</v>
       </c>
       <c r="I116" t="s">
@@ -6159,7 +6233,7 @@
       <c r="J116" t="s">
         <v>23</v>
       </c>
-      <c r="K116" s="2" t="s">
+      <c r="K116" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6185,7 +6259,7 @@
       <c r="G117" t="s">
         <v>275</v>
       </c>
-      <c r="H117" s="3" t="s">
+      <c r="H117" s="63" t="s">
         <v>17</v>
       </c>
       <c r="I117" t="s">
@@ -6194,7 +6268,7 @@
       <c r="J117" t="s">
         <v>41</v>
       </c>
-      <c r="K117" s="2" t="s">
+      <c r="K117" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6220,7 +6294,7 @@
       <c r="G118" t="s">
         <v>275</v>
       </c>
-      <c r="H118" s="3" t="s">
+      <c r="H118" s="63" t="s">
         <v>17</v>
       </c>
       <c r="I118" t="s">
@@ -6229,7 +6303,7 @@
       <c r="J118" t="s">
         <v>41</v>
       </c>
-      <c r="K118" s="2" t="s">
+      <c r="K118" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6255,7 +6329,7 @@
       <c r="G119" t="s">
         <v>275</v>
       </c>
-      <c r="H119" s="3" t="s">
+      <c r="H119" s="63" t="s">
         <v>17</v>
       </c>
       <c r="I119" t="s">
@@ -6264,7 +6338,7 @@
       <c r="J119" t="s">
         <v>23</v>
       </c>
-      <c r="K119" s="2" t="s">
+      <c r="K119" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6290,7 +6364,7 @@
       <c r="G120" t="s">
         <v>275</v>
       </c>
-      <c r="H120" s="3" t="s">
+      <c r="H120" s="63" t="s">
         <v>17</v>
       </c>
       <c r="I120" t="s">
@@ -6299,7 +6373,7 @@
       <c r="J120" t="s">
         <v>19</v>
       </c>
-      <c r="K120" s="2" t="s">
+      <c r="K120" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6325,7 +6399,7 @@
       <c r="G121" t="s">
         <v>275</v>
       </c>
-      <c r="H121" s="3" t="s">
+      <c r="H121" s="63" t="s">
         <v>17</v>
       </c>
       <c r="I121" t="s">
@@ -6334,7 +6408,7 @@
       <c r="J121" t="s">
         <v>65</v>
       </c>
-      <c r="K121" s="3" t="s">
+      <c r="K121" s="63" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6360,7 +6434,7 @@
       <c r="G122" t="s">
         <v>275</v>
       </c>
-      <c r="H122" s="3" t="s">
+      <c r="H122" s="63" t="s">
         <v>17</v>
       </c>
       <c r="I122" t="s">
@@ -6369,7 +6443,7 @@
       <c r="J122" t="s">
         <v>36</v>
       </c>
-      <c r="K122" s="3" t="s">
+      <c r="K122" s="63" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6395,7 +6469,7 @@
       <c r="G123" t="s">
         <v>275</v>
       </c>
-      <c r="H123" s="3" t="s">
+      <c r="H123" s="63" t="s">
         <v>17</v>
       </c>
       <c r="I123" t="s">
@@ -6404,7 +6478,7 @@
       <c r="J123" t="s">
         <v>57</v>
       </c>
-      <c r="K123" s="3" t="s">
+      <c r="K123" s="63" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6430,7 +6504,7 @@
       <c r="G124" t="s">
         <v>275</v>
       </c>
-      <c r="H124" s="3" t="s">
+      <c r="H124" s="63" t="s">
         <v>17</v>
       </c>
       <c r="I124" t="s">
@@ -6439,7 +6513,7 @@
       <c r="J124" t="s">
         <v>29</v>
       </c>
-      <c r="K124" s="2" t="s">
+      <c r="K124" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6465,7 +6539,7 @@
       <c r="G125" t="s">
         <v>275</v>
       </c>
-      <c r="H125" s="3" t="s">
+      <c r="H125" s="63" t="s">
         <v>17</v>
       </c>
       <c r="I125" t="s">
@@ -6474,7 +6548,7 @@
       <c r="J125" t="s">
         <v>26</v>
       </c>
-      <c r="K125" s="2" t="s">
+      <c r="K125" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6500,7 +6574,7 @@
       <c r="G126" t="s">
         <v>275</v>
       </c>
-      <c r="H126" s="3" t="s">
+      <c r="H126" s="63" t="s">
         <v>17</v>
       </c>
       <c r="I126" t="s">
@@ -6509,7 +6583,7 @@
       <c r="J126" t="s">
         <v>11</v>
       </c>
-      <c r="K126" s="2" t="s">
+      <c r="K126" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6535,7 +6609,7 @@
       <c r="G127" t="s">
         <v>275</v>
       </c>
-      <c r="H127" s="3" t="s">
+      <c r="H127" s="63" t="s">
         <v>17</v>
       </c>
       <c r="I127" t="s">
@@ -6544,7 +6618,7 @@
       <c r="J127" t="s">
         <v>19</v>
       </c>
-      <c r="K127" s="2" t="s">
+      <c r="K127" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6570,7 +6644,7 @@
       <c r="G128" t="s">
         <v>275</v>
       </c>
-      <c r="H128" s="3" t="s">
+      <c r="H128" s="63" t="s">
         <v>17</v>
       </c>
       <c r="I128" t="s">
@@ -6579,7 +6653,7 @@
       <c r="J128" t="s">
         <v>26</v>
       </c>
-      <c r="K128" s="2" t="s">
+      <c r="K128" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6605,7 +6679,7 @@
       <c r="G129" t="s">
         <v>275</v>
       </c>
-      <c r="H129" s="3" t="s">
+      <c r="H129" s="63" t="s">
         <v>17</v>
       </c>
       <c r="I129" t="s">
@@ -6614,7 +6688,7 @@
       <c r="J129" t="s">
         <v>15</v>
       </c>
-      <c r="K129" s="2" t="s">
+      <c r="K129" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6640,7 +6714,7 @@
       <c r="G130" t="s">
         <v>275</v>
       </c>
-      <c r="H130" s="3" t="s">
+      <c r="H130" s="63" t="s">
         <v>17</v>
       </c>
       <c r="I130" t="s">
@@ -6649,7 +6723,7 @@
       <c r="J130" t="s">
         <v>19</v>
       </c>
-      <c r="K130" s="2" t="s">
+      <c r="K130" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6675,7 +6749,7 @@
       <c r="G131" t="s">
         <v>275</v>
       </c>
-      <c r="H131" s="3" t="s">
+      <c r="H131" s="63" t="s">
         <v>17</v>
       </c>
       <c r="I131" t="s">
@@ -6684,7 +6758,7 @@
       <c r="J131" t="s">
         <v>215</v>
       </c>
-      <c r="K131" s="3" t="s">
+      <c r="K131" s="63" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6710,7 +6784,7 @@
       <c r="G132" t="s">
         <v>275</v>
       </c>
-      <c r="H132" s="3" t="s">
+      <c r="H132" s="63" t="s">
         <v>17</v>
       </c>
       <c r="I132" t="s">
@@ -6719,7 +6793,7 @@
       <c r="J132" t="s">
         <v>11</v>
       </c>
-      <c r="K132" s="2" t="s">
+      <c r="K132" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6745,7 +6819,7 @@
       <c r="G133" t="s">
         <v>275</v>
       </c>
-      <c r="H133" s="3" t="s">
+      <c r="H133" s="63" t="s">
         <v>17</v>
       </c>
       <c r="I133" t="s">
@@ -6754,7 +6828,7 @@
       <c r="J133" t="s">
         <v>31</v>
       </c>
-      <c r="K133" s="3" t="s">
+      <c r="K133" s="63" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6780,7 +6854,7 @@
       <c r="G134" t="s">
         <v>275</v>
       </c>
-      <c r="H134" s="3" t="s">
+      <c r="H134" s="63" t="s">
         <v>17</v>
       </c>
       <c r="I134" t="s">
@@ -6789,7 +6863,7 @@
       <c r="J134" t="s">
         <v>19</v>
       </c>
-      <c r="K134" s="2" t="s">
+      <c r="K134" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6815,7 +6889,7 @@
       <c r="G135" t="s">
         <v>275</v>
       </c>
-      <c r="H135" s="3" t="s">
+      <c r="H135" s="63" t="s">
         <v>17</v>
       </c>
       <c r="I135" t="s">
@@ -6824,7 +6898,7 @@
       <c r="J135" t="s">
         <v>26</v>
       </c>
-      <c r="K135" s="2" t="s">
+      <c r="K135" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6850,7 +6924,7 @@
       <c r="G136" t="s">
         <v>275</v>
       </c>
-      <c r="H136" s="3" t="s">
+      <c r="H136" s="63" t="s">
         <v>17</v>
       </c>
       <c r="I136" t="s">
@@ -6859,7 +6933,7 @@
       <c r="J136" t="s">
         <v>26</v>
       </c>
-      <c r="K136" s="2" t="s">
+      <c r="K136" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6885,7 +6959,7 @@
       <c r="G137" t="s">
         <v>275</v>
       </c>
-      <c r="H137" s="3" t="s">
+      <c r="H137" s="63" t="s">
         <v>17</v>
       </c>
       <c r="I137" t="s">
@@ -6894,7 +6968,7 @@
       <c r="J137" t="s">
         <v>32</v>
       </c>
-      <c r="K137" s="2" t="s">
+      <c r="K137" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6920,7 +6994,7 @@
       <c r="G138" t="s">
         <v>26</v>
       </c>
-      <c r="H138" s="2" t="s">
+      <c r="H138" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I138" t="s">
@@ -6929,7 +7003,7 @@
       <c r="J138" t="s">
         <v>11</v>
       </c>
-      <c r="K138" s="2" t="s">
+      <c r="K138" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6955,7 +7029,7 @@
       <c r="G139" t="s">
         <v>26</v>
       </c>
-      <c r="H139" s="2" t="s">
+      <c r="H139" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I139" t="s">
@@ -6964,7 +7038,7 @@
       <c r="J139" t="s">
         <v>15</v>
       </c>
-      <c r="K139" s="2" t="s">
+      <c r="K139" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6990,7 +7064,7 @@
       <c r="G140" t="s">
         <v>26</v>
       </c>
-      <c r="H140" s="2" t="s">
+      <c r="H140" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I140" t="s">
@@ -6999,7 +7073,7 @@
       <c r="J140" t="s">
         <v>11</v>
       </c>
-      <c r="K140" s="2" t="s">
+      <c r="K140" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -7025,7 +7099,7 @@
       <c r="G141" t="s">
         <v>123</v>
       </c>
-      <c r="H141" s="2" t="s">
+      <c r="H141" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I141" t="s">
@@ -7034,7 +7108,7 @@
       <c r="J141" t="s">
         <v>19</v>
       </c>
-      <c r="K141" s="2" t="s">
+      <c r="K141" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -7060,7 +7134,7 @@
       <c r="G142" t="s">
         <v>123</v>
       </c>
-      <c r="H142" s="2" t="s">
+      <c r="H142" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I142" t="s">
@@ -7069,7 +7143,7 @@
       <c r="J142" t="s">
         <v>99</v>
       </c>
-      <c r="K142" s="3" t="s">
+      <c r="K142" s="63" t="s">
         <v>17</v>
       </c>
     </row>
@@ -7095,7 +7169,7 @@
       <c r="G143" t="s">
         <v>123</v>
       </c>
-      <c r="H143" s="2" t="s">
+      <c r="H143" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I143" t="s">
@@ -7104,7 +7178,7 @@
       <c r="J143" t="s">
         <v>28</v>
       </c>
-      <c r="K143" s="2" t="s">
+      <c r="K143" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -7130,7 +7204,7 @@
       <c r="G144" t="s">
         <v>123</v>
       </c>
-      <c r="H144" s="2" t="s">
+      <c r="H144" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I144" t="s">
@@ -7139,7 +7213,7 @@
       <c r="J144" t="s">
         <v>11</v>
       </c>
-      <c r="K144" s="2" t="s">
+      <c r="K144" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -7165,7 +7239,7 @@
       <c r="G145" t="s">
         <v>123</v>
       </c>
-      <c r="H145" s="2" t="s">
+      <c r="H145" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I145" t="s">
@@ -7174,7 +7248,7 @@
       <c r="J145" t="s">
         <v>11</v>
       </c>
-      <c r="K145" s="2" t="s">
+      <c r="K145" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -7200,7 +7274,7 @@
       <c r="G146" t="s">
         <v>19</v>
       </c>
-      <c r="H146" s="2" t="s">
+      <c r="H146" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I146" t="s">
@@ -7209,7 +7283,7 @@
       <c r="J146" t="s">
         <v>11</v>
       </c>
-      <c r="K146" s="2" t="s">
+      <c r="K146" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -7235,7 +7309,7 @@
       <c r="G147" t="s">
         <v>19</v>
       </c>
-      <c r="H147" s="2" t="s">
+      <c r="H147" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I147" t="s">
@@ -7244,7 +7318,7 @@
       <c r="J147" t="s">
         <v>15</v>
       </c>
-      <c r="K147" s="2" t="s">
+      <c r="K147" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -7270,7 +7344,7 @@
       <c r="G148" t="s">
         <v>347</v>
       </c>
-      <c r="H148" s="3" t="s">
+      <c r="H148" s="63" t="s">
         <v>17</v>
       </c>
       <c r="I148" t="s">
@@ -7279,7 +7353,7 @@
       <c r="J148" t="s">
         <v>11</v>
       </c>
-      <c r="K148" s="2" t="s">
+      <c r="K148" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -7305,7 +7379,7 @@
       <c r="G149" t="s">
         <v>347</v>
       </c>
-      <c r="H149" s="3" t="s">
+      <c r="H149" s="63" t="s">
         <v>17</v>
       </c>
       <c r="I149" t="s">
@@ -7314,7 +7388,7 @@
       <c r="J149" t="s">
         <v>11</v>
       </c>
-      <c r="K149" s="2" t="s">
+      <c r="K149" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -7340,7 +7414,7 @@
       <c r="G150" t="s">
         <v>15</v>
       </c>
-      <c r="H150" s="2" t="s">
+      <c r="H150" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I150" t="s">
@@ -7349,7 +7423,7 @@
       <c r="J150" t="s">
         <v>11</v>
       </c>
-      <c r="K150" s="2" t="s">
+      <c r="K150" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -7375,7 +7449,7 @@
       <c r="G151" t="s">
         <v>15</v>
       </c>
-      <c r="H151" s="2" t="s">
+      <c r="H151" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I151" t="s">
@@ -7384,7 +7458,7 @@
       <c r="J151" t="s">
         <v>11</v>
       </c>
-      <c r="K151" s="2" t="s">
+      <c r="K151" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -7410,7 +7484,7 @@
       <c r="G152" t="s">
         <v>11</v>
       </c>
-      <c r="H152" s="2" t="s">
+      <c r="H152" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I152" t="s">
@@ -7419,7 +7493,7 @@
       <c r="J152" t="s">
         <v>11</v>
       </c>
-      <c r="K152" s="2" t="s">
+      <c r="K152" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -7445,7 +7519,7 @@
       <c r="G153" t="s">
         <v>347</v>
       </c>
-      <c r="H153" s="3" t="s">
+      <c r="H153" s="63" t="s">
         <v>17</v>
       </c>
       <c r="I153" t="s">
@@ -7454,7 +7528,7 @@
       <c r="J153" t="s">
         <v>15</v>
       </c>
-      <c r="K153" s="2" t="s">
+      <c r="K153" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -7480,7 +7554,7 @@
       <c r="G154" t="s">
         <v>347</v>
       </c>
-      <c r="H154" s="3" t="s">
+      <c r="H154" s="63" t="s">
         <v>17</v>
       </c>
       <c r="I154" t="s">
@@ -7489,7 +7563,7 @@
       <c r="J154" t="s">
         <v>29</v>
       </c>
-      <c r="K154" s="2" t="s">
+      <c r="K154" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -7515,7 +7589,7 @@
       <c r="G155" t="s">
         <v>347</v>
       </c>
-      <c r="H155" s="3" t="s">
+      <c r="H155" s="63" t="s">
         <v>17</v>
       </c>
       <c r="I155" t="s">
@@ -7524,7 +7598,7 @@
       <c r="J155" t="s">
         <v>26</v>
       </c>
-      <c r="K155" s="2" t="s">
+      <c r="K155" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -7550,7 +7624,7 @@
       <c r="G156" t="s">
         <v>347</v>
       </c>
-      <c r="H156" s="3" t="s">
+      <c r="H156" s="63" t="s">
         <v>17</v>
       </c>
       <c r="I156" t="s">
@@ -7559,7 +7633,7 @@
       <c r="J156" t="s">
         <v>41</v>
       </c>
-      <c r="K156" s="2" t="s">
+      <c r="K156" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -7585,7 +7659,7 @@
       <c r="G157" t="s">
         <v>347</v>
       </c>
-      <c r="H157" s="3" t="s">
+      <c r="H157" s="63" t="s">
         <v>17</v>
       </c>
       <c r="I157" t="s">
@@ -7594,7 +7668,7 @@
       <c r="J157" t="s">
         <v>19</v>
       </c>
-      <c r="K157" s="2" t="s">
+      <c r="K157" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -7620,7 +7694,7 @@
       <c r="G158" t="s">
         <v>347</v>
       </c>
-      <c r="H158" s="3" t="s">
+      <c r="H158" s="63" t="s">
         <v>17</v>
       </c>
       <c r="I158" t="s">
@@ -7629,7 +7703,7 @@
       <c r="J158" t="s">
         <v>38</v>
       </c>
-      <c r="K158" s="3" t="s">
+      <c r="K158" s="63" t="s">
         <v>17</v>
       </c>
     </row>
@@ -7655,7 +7729,7 @@
       <c r="G159" t="s">
         <v>347</v>
       </c>
-      <c r="H159" s="3" t="s">
+      <c r="H159" s="63" t="s">
         <v>17</v>
       </c>
       <c r="I159" t="s">
@@ -7664,7 +7738,7 @@
       <c r="J159" t="s">
         <v>19</v>
       </c>
-      <c r="K159" s="2" t="s">
+      <c r="K159" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -7690,7 +7764,7 @@
       <c r="G160" t="s">
         <v>347</v>
       </c>
-      <c r="H160" s="3" t="s">
+      <c r="H160" s="63" t="s">
         <v>17</v>
       </c>
       <c r="I160" t="s">
@@ -7699,7 +7773,7 @@
       <c r="J160" t="s">
         <v>32</v>
       </c>
-      <c r="K160" s="2" t="s">
+      <c r="K160" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -7725,7 +7799,7 @@
       <c r="G161" t="s">
         <v>347</v>
       </c>
-      <c r="H161" s="3" t="s">
+      <c r="H161" s="63" t="s">
         <v>17</v>
       </c>
       <c r="I161" t="s">
@@ -7734,7 +7808,7 @@
       <c r="J161" t="s">
         <v>41</v>
       </c>
-      <c r="K161" s="2" t="s">
+      <c r="K161" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -7760,7 +7834,7 @@
       <c r="G162" t="s">
         <v>347</v>
       </c>
-      <c r="H162" s="3" t="s">
+      <c r="H162" s="63" t="s">
         <v>17</v>
       </c>
       <c r="I162" t="s">
@@ -7769,7 +7843,7 @@
       <c r="J162" t="s">
         <v>11</v>
       </c>
-      <c r="K162" s="2" t="s">
+      <c r="K162" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -7795,7 +7869,7 @@
       <c r="G163" t="s">
         <v>347</v>
       </c>
-      <c r="H163" s="3" t="s">
+      <c r="H163" s="63" t="s">
         <v>17</v>
       </c>
       <c r="I163" t="s">
@@ -7804,7 +7878,7 @@
       <c r="J163" t="s">
         <v>330</v>
       </c>
-      <c r="K163" s="3" t="s">
+      <c r="K163" s="63" t="s">
         <v>17</v>
       </c>
     </row>
@@ -7830,7 +7904,7 @@
       <c r="G164" t="s">
         <v>347</v>
       </c>
-      <c r="H164" s="3" t="s">
+      <c r="H164" s="63" t="s">
         <v>17</v>
       </c>
       <c r="I164" t="s">
@@ -7839,7 +7913,7 @@
       <c r="J164" t="s">
         <v>16</v>
       </c>
-      <c r="K164" s="3" t="s">
+      <c r="K164" s="63" t="s">
         <v>17</v>
       </c>
     </row>
@@ -7865,7 +7939,7 @@
       <c r="G165" t="s">
         <v>347</v>
       </c>
-      <c r="H165" s="3" t="s">
+      <c r="H165" s="63" t="s">
         <v>17</v>
       </c>
       <c r="I165" t="s">
@@ -7874,7 +7948,7 @@
       <c r="J165" t="s">
         <v>54</v>
       </c>
-      <c r="K165" s="3" t="s">
+      <c r="K165" s="63" t="s">
         <v>17</v>
       </c>
     </row>
@@ -7900,7 +7974,7 @@
       <c r="G166" t="s">
         <v>347</v>
       </c>
-      <c r="H166" s="3" t="s">
+      <c r="H166" s="63" t="s">
         <v>17</v>
       </c>
       <c r="I166" t="s">
@@ -7909,7 +7983,7 @@
       <c r="J166" t="s">
         <v>31</v>
       </c>
-      <c r="K166" s="3" t="s">
+      <c r="K166" s="63" t="s">
         <v>17</v>
       </c>
     </row>
@@ -7935,7 +8009,7 @@
       <c r="G167" t="s">
         <v>347</v>
       </c>
-      <c r="H167" s="3" t="s">
+      <c r="H167" s="63" t="s">
         <v>17</v>
       </c>
       <c r="I167" t="s">
@@ -7944,7 +8018,7 @@
       <c r="J167" t="s">
         <v>57</v>
       </c>
-      <c r="K167" s="3" t="s">
+      <c r="K167" s="63" t="s">
         <v>17</v>
       </c>
     </row>
@@ -7970,7 +8044,7 @@
       <c r="G168" t="s">
         <v>347</v>
       </c>
-      <c r="H168" s="3" t="s">
+      <c r="H168" s="63" t="s">
         <v>17</v>
       </c>
       <c r="I168" t="s">
@@ -7979,7 +8053,7 @@
       <c r="J168" t="s">
         <v>19</v>
       </c>
-      <c r="K168" s="2" t="s">
+      <c r="K168" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -8005,7 +8079,7 @@
       <c r="G169" t="s">
         <v>347</v>
       </c>
-      <c r="H169" s="3" t="s">
+      <c r="H169" s="63" t="s">
         <v>17</v>
       </c>
       <c r="I169" t="s">
@@ -8014,7 +8088,7 @@
       <c r="J169" t="s">
         <v>26</v>
       </c>
-      <c r="K169" s="2" t="s">
+      <c r="K169" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -8040,7 +8114,7 @@
       <c r="G170" t="s">
         <v>347</v>
       </c>
-      <c r="H170" s="3" t="s">
+      <c r="H170" s="63" t="s">
         <v>17</v>
       </c>
       <c r="I170" t="s">
@@ -8049,7 +8123,7 @@
       <c r="J170" t="s">
         <v>62</v>
       </c>
-      <c r="K170" s="3" t="s">
+      <c r="K170" s="63" t="s">
         <v>17</v>
       </c>
     </row>
@@ -8075,7 +8149,7 @@
       <c r="G171" t="s">
         <v>347</v>
       </c>
-      <c r="H171" s="3" t="s">
+      <c r="H171" s="63" t="s">
         <v>17</v>
       </c>
       <c r="I171" t="s">
@@ -8084,7 +8158,7 @@
       <c r="J171" t="s">
         <v>26</v>
       </c>
-      <c r="K171" s="2" t="s">
+      <c r="K171" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -8110,7 +8184,7 @@
       <c r="G172" t="s">
         <v>347</v>
       </c>
-      <c r="H172" s="3" t="s">
+      <c r="H172" s="63" t="s">
         <v>17</v>
       </c>
       <c r="I172" t="s">
@@ -8119,7 +8193,7 @@
       <c r="J172" t="s">
         <v>28</v>
       </c>
-      <c r="K172" s="2" t="s">
+      <c r="K172" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -8145,7 +8219,7 @@
       <c r="G173" t="s">
         <v>347</v>
       </c>
-      <c r="H173" s="3" t="s">
+      <c r="H173" s="63" t="s">
         <v>17</v>
       </c>
       <c r="I173" t="s">
@@ -8154,7 +8228,7 @@
       <c r="J173" t="s">
         <v>26</v>
       </c>
-      <c r="K173" s="2" t="s">
+      <c r="K173" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -8180,7 +8254,7 @@
       <c r="G174" t="s">
         <v>347</v>
       </c>
-      <c r="H174" s="3" t="s">
+      <c r="H174" s="63" t="s">
         <v>17</v>
       </c>
       <c r="I174" t="s">
@@ -8189,7 +8263,7 @@
       <c r="J174" t="s">
         <v>19</v>
       </c>
-      <c r="K174" s="2" t="s">
+      <c r="K174" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -8215,7 +8289,7 @@
       <c r="G175" t="s">
         <v>347</v>
       </c>
-      <c r="H175" s="3" t="s">
+      <c r="H175" s="63" t="s">
         <v>17</v>
       </c>
       <c r="I175" t="s">
@@ -8224,7 +8298,7 @@
       <c r="J175" t="s">
         <v>29</v>
       </c>
-      <c r="K175" s="2" t="s">
+      <c r="K175" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -8250,7 +8324,7 @@
       <c r="G176" t="s">
         <v>347</v>
       </c>
-      <c r="H176" s="3" t="s">
+      <c r="H176" s="63" t="s">
         <v>17</v>
       </c>
       <c r="I176" t="s">
@@ -8259,7 +8333,7 @@
       <c r="J176" t="s">
         <v>19</v>
       </c>
-      <c r="K176" s="2" t="s">
+      <c r="K176" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -8285,7 +8359,7 @@
       <c r="G177" t="s">
         <v>347</v>
       </c>
-      <c r="H177" s="3" t="s">
+      <c r="H177" s="63" t="s">
         <v>17</v>
       </c>
       <c r="I177" t="s">
@@ -8294,7 +8368,7 @@
       <c r="J177" t="s">
         <v>19</v>
       </c>
-      <c r="K177" s="2" t="s">
+      <c r="K177" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -8320,7 +8394,7 @@
       <c r="G178" t="s">
         <v>347</v>
       </c>
-      <c r="H178" s="3" t="s">
+      <c r="H178" s="63" t="s">
         <v>17</v>
       </c>
       <c r="I178" t="s">
@@ -8329,7 +8403,7 @@
       <c r="J178" t="s">
         <v>11</v>
       </c>
-      <c r="K178" s="2" t="s">
+      <c r="K178" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -8355,7 +8429,7 @@
       <c r="G179" t="s">
         <v>347</v>
       </c>
-      <c r="H179" s="3" t="s">
+      <c r="H179" s="63" t="s">
         <v>17</v>
       </c>
       <c r="I179" t="s">
@@ -8364,7 +8438,7 @@
       <c r="J179" t="s">
         <v>11</v>
       </c>
-      <c r="K179" s="2" t="s">
+      <c r="K179" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -8390,7 +8464,7 @@
       <c r="G180" t="s">
         <v>43</v>
       </c>
-      <c r="H180" s="2" t="s">
+      <c r="H180" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I180" t="s">
@@ -8399,7 +8473,7 @@
       <c r="J180" t="s">
         <v>11</v>
       </c>
-      <c r="K180" s="2" t="s">
+      <c r="K180" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -8425,7 +8499,7 @@
       <c r="G181" t="s">
         <v>43</v>
       </c>
-      <c r="H181" s="2" t="s">
+      <c r="H181" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I181" t="s">
@@ -8434,7 +8508,7 @@
       <c r="J181" t="s">
         <v>11</v>
       </c>
-      <c r="K181" s="2" t="s">
+      <c r="K181" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -8460,7 +8534,7 @@
       <c r="G182" t="s">
         <v>43</v>
       </c>
-      <c r="H182" s="2" t="s">
+      <c r="H182" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I182" t="s">
@@ -8469,7 +8543,7 @@
       <c r="J182" t="s">
         <v>15</v>
       </c>
-      <c r="K182" s="2" t="s">
+      <c r="K182" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -8495,7 +8569,7 @@
       <c r="G183" t="s">
         <v>43</v>
       </c>
-      <c r="H183" s="2" t="s">
+      <c r="H183" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I183" t="s">
@@ -8504,7 +8578,7 @@
       <c r="J183" t="s">
         <v>15</v>
       </c>
-      <c r="K183" s="2" t="s">
+      <c r="K183" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -8530,7 +8604,7 @@
       <c r="G184" t="s">
         <v>43</v>
       </c>
-      <c r="H184" s="2" t="s">
+      <c r="H184" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I184" t="s">
@@ -8539,7 +8613,7 @@
       <c r="J184" t="s">
         <v>15</v>
       </c>
-      <c r="K184" s="2" t="s">
+      <c r="K184" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -8565,7 +8639,7 @@
       <c r="G185" t="s">
         <v>43</v>
       </c>
-      <c r="H185" s="2" t="s">
+      <c r="H185" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I185" t="s">
@@ -8574,7 +8648,7 @@
       <c r="J185" t="s">
         <v>15</v>
       </c>
-      <c r="K185" s="2" t="s">
+      <c r="K185" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -8600,7 +8674,7 @@
       <c r="G186" t="s">
         <v>43</v>
       </c>
-      <c r="H186" s="2" t="s">
+      <c r="H186" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I186" t="s">
@@ -8609,7 +8683,7 @@
       <c r="J186" t="s">
         <v>15</v>
       </c>
-      <c r="K186" s="2" t="s">
+      <c r="K186" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -8635,7 +8709,7 @@
       <c r="G187" t="s">
         <v>43</v>
       </c>
-      <c r="H187" s="2" t="s">
+      <c r="H187" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I187" t="s">
@@ -8644,7 +8718,7 @@
       <c r="J187" t="s">
         <v>15</v>
       </c>
-      <c r="K187" s="2" t="s">
+      <c r="K187" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -8670,7 +8744,7 @@
       <c r="G188" t="s">
         <v>43</v>
       </c>
-      <c r="H188" s="2" t="s">
+      <c r="H188" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I188" t="s">
@@ -8679,7 +8753,7 @@
       <c r="J188" t="s">
         <v>15</v>
       </c>
-      <c r="K188" s="2" t="s">
+      <c r="K188" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -8705,7 +8779,7 @@
       <c r="G189" t="s">
         <v>43</v>
       </c>
-      <c r="H189" s="2" t="s">
+      <c r="H189" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I189" t="s">
@@ -8714,7 +8788,7 @@
       <c r="J189" t="s">
         <v>15</v>
       </c>
-      <c r="K189" s="2" t="s">
+      <c r="K189" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -8740,7 +8814,7 @@
       <c r="G190" t="s">
         <v>43</v>
       </c>
-      <c r="H190" s="2" t="s">
+      <c r="H190" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I190" t="s">
@@ -8749,7 +8823,7 @@
       <c r="J190" t="s">
         <v>15</v>
       </c>
-      <c r="K190" s="2" t="s">
+      <c r="K190" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -8775,7 +8849,7 @@
       <c r="G191" t="s">
         <v>43</v>
       </c>
-      <c r="H191" s="2" t="s">
+      <c r="H191" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I191" t="s">
@@ -8784,7 +8858,7 @@
       <c r="J191" t="s">
         <v>15</v>
       </c>
-      <c r="K191" s="2" t="s">
+      <c r="K191" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -8810,7 +8884,7 @@
       <c r="G192" t="s">
         <v>43</v>
       </c>
-      <c r="H192" s="2" t="s">
+      <c r="H192" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I192" t="s">
@@ -8819,7 +8893,7 @@
       <c r="J192" t="s">
         <v>15</v>
       </c>
-      <c r="K192" s="2" t="s">
+      <c r="K192" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -8845,7 +8919,7 @@
       <c r="G193" t="s">
         <v>43</v>
       </c>
-      <c r="H193" s="2" t="s">
+      <c r="H193" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I193" t="s">
@@ -8854,7 +8928,7 @@
       <c r="J193" t="s">
         <v>15</v>
       </c>
-      <c r="K193" s="2" t="s">
+      <c r="K193" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -8880,7 +8954,7 @@
       <c r="G194" t="s">
         <v>43</v>
       </c>
-      <c r="H194" s="2" t="s">
+      <c r="H194" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I194" t="s">
@@ -8889,7 +8963,7 @@
       <c r="J194" t="s">
         <v>15</v>
       </c>
-      <c r="K194" s="2" t="s">
+      <c r="K194" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -8915,7 +8989,7 @@
       <c r="G195" t="s">
         <v>43</v>
       </c>
-      <c r="H195" s="2" t="s">
+      <c r="H195" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I195" t="s">
@@ -8924,7 +8998,7 @@
       <c r="J195" t="s">
         <v>15</v>
       </c>
-      <c r="K195" s="2" t="s">
+      <c r="K195" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -8950,7 +9024,7 @@
       <c r="G196" t="s">
         <v>43</v>
       </c>
-      <c r="H196" s="2" t="s">
+      <c r="H196" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I196" t="s">
@@ -8959,7 +9033,7 @@
       <c r="J196" t="s">
         <v>29</v>
       </c>
-      <c r="K196" s="2" t="s">
+      <c r="K196" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -8985,7 +9059,7 @@
       <c r="G197" t="s">
         <v>43</v>
       </c>
-      <c r="H197" s="2" t="s">
+      <c r="H197" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I197" t="s">
@@ -8994,7 +9068,7 @@
       <c r="J197" t="s">
         <v>15</v>
       </c>
-      <c r="K197" s="2" t="s">
+      <c r="K197" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -9020,7 +9094,7 @@
       <c r="G198" t="s">
         <v>43</v>
       </c>
-      <c r="H198" s="2" t="s">
+      <c r="H198" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I198" t="s">
@@ -9029,7 +9103,7 @@
       <c r="J198" t="s">
         <v>15</v>
       </c>
-      <c r="K198" s="2" t="s">
+      <c r="K198" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -9055,7 +9129,7 @@
       <c r="G199" t="s">
         <v>43</v>
       </c>
-      <c r="H199" s="2" t="s">
+      <c r="H199" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I199" t="s">
@@ -9064,7 +9138,7 @@
       <c r="J199" t="s">
         <v>29</v>
       </c>
-      <c r="K199" s="2" t="s">
+      <c r="K199" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -9090,7 +9164,7 @@
       <c r="G200" t="s">
         <v>43</v>
       </c>
-      <c r="H200" s="2" t="s">
+      <c r="H200" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I200" t="s">
@@ -9099,7 +9173,7 @@
       <c r="J200" t="s">
         <v>29</v>
       </c>
-      <c r="K200" s="2" t="s">
+      <c r="K200" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -9125,7 +9199,7 @@
       <c r="G201" t="s">
         <v>43</v>
       </c>
-      <c r="H201" s="2" t="s">
+      <c r="H201" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I201" t="s">
@@ -9134,7 +9208,7 @@
       <c r="J201" t="s">
         <v>29</v>
       </c>
-      <c r="K201" s="2" t="s">
+      <c r="K201" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -9160,7 +9234,7 @@
       <c r="G202" t="s">
         <v>43</v>
       </c>
-      <c r="H202" s="2" t="s">
+      <c r="H202" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I202" t="s">
@@ -9169,7 +9243,7 @@
       <c r="J202" t="s">
         <v>29</v>
       </c>
-      <c r="K202" s="2" t="s">
+      <c r="K202" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -9195,7 +9269,7 @@
       <c r="G203" t="s">
         <v>43</v>
       </c>
-      <c r="H203" s="2" t="s">
+      <c r="H203" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I203" t="s">
@@ -9204,7 +9278,7 @@
       <c r="J203" t="s">
         <v>15</v>
       </c>
-      <c r="K203" s="2" t="s">
+      <c r="K203" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -9230,7 +9304,7 @@
       <c r="G204" t="s">
         <v>43</v>
       </c>
-      <c r="H204" s="2" t="s">
+      <c r="H204" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I204" t="s">
@@ -9239,7 +9313,7 @@
       <c r="J204" t="s">
         <v>11</v>
       </c>
-      <c r="K204" s="2" t="s">
+      <c r="K204" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -9265,7 +9339,7 @@
       <c r="G205" t="s">
         <v>329</v>
       </c>
-      <c r="H205" s="2" t="s">
+      <c r="H205" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I205" t="s">
@@ -9274,7 +9348,7 @@
       <c r="J205" t="s">
         <v>11</v>
       </c>
-      <c r="K205" s="2" t="s">
+      <c r="K205" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -9300,7 +9374,7 @@
       <c r="G206" t="s">
         <v>329</v>
       </c>
-      <c r="H206" s="2" t="s">
+      <c r="H206" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I206" t="s">
@@ -9309,7 +9383,7 @@
       <c r="J206" t="s">
         <v>11</v>
       </c>
-      <c r="K206" s="2" t="s">
+      <c r="K206" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -9335,7 +9409,7 @@
       <c r="G207" t="s">
         <v>329</v>
       </c>
-      <c r="H207" s="2" t="s">
+      <c r="H207" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I207" t="s">
@@ -9344,7 +9418,7 @@
       <c r="J207" t="s">
         <v>11</v>
       </c>
-      <c r="K207" s="2" t="s">
+      <c r="K207" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -9370,7 +9444,7 @@
       <c r="G208" t="s">
         <v>329</v>
       </c>
-      <c r="H208" s="2" t="s">
+      <c r="H208" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I208" t="s">
@@ -9379,7 +9453,7 @@
       <c r="J208" t="s">
         <v>11</v>
       </c>
-      <c r="K208" s="2" t="s">
+      <c r="K208" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -9405,7 +9479,7 @@
       <c r="G209" t="s">
         <v>329</v>
       </c>
-      <c r="H209" s="2" t="s">
+      <c r="H209" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I209" t="s">
@@ -9414,7 +9488,7 @@
       <c r="J209" t="s">
         <v>11</v>
       </c>
-      <c r="K209" s="2" t="s">
+      <c r="K209" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -9440,7 +9514,7 @@
       <c r="G210" t="s">
         <v>329</v>
       </c>
-      <c r="H210" s="2" t="s">
+      <c r="H210" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I210" t="s">
@@ -9449,7 +9523,7 @@
       <c r="J210" t="s">
         <v>11</v>
       </c>
-      <c r="K210" s="2" t="s">
+      <c r="K210" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -9475,7 +9549,7 @@
       <c r="G211" t="s">
         <v>329</v>
       </c>
-      <c r="H211" s="2" t="s">
+      <c r="H211" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I211" t="s">
@@ -9484,7 +9558,7 @@
       <c r="J211" t="s">
         <v>11</v>
       </c>
-      <c r="K211" s="2" t="s">
+      <c r="K211" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -9510,7 +9584,7 @@
       <c r="G212" t="s">
         <v>329</v>
       </c>
-      <c r="H212" s="2" t="s">
+      <c r="H212" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I212" t="s">
@@ -9519,7 +9593,7 @@
       <c r="J212" t="s">
         <v>11</v>
       </c>
-      <c r="K212" s="2" t="s">
+      <c r="K212" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -9545,7 +9619,7 @@
       <c r="G213" t="s">
         <v>329</v>
       </c>
-      <c r="H213" s="2" t="s">
+      <c r="H213" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I213" t="s">
@@ -9554,7 +9628,7 @@
       <c r="J213" t="s">
         <v>11</v>
       </c>
-      <c r="K213" s="2" t="s">
+      <c r="K213" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -9580,7 +9654,7 @@
       <c r="G214" t="s">
         <v>329</v>
       </c>
-      <c r="H214" s="2" t="s">
+      <c r="H214" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I214" t="s">
@@ -9589,7 +9663,7 @@
       <c r="J214" t="s">
         <v>11</v>
       </c>
-      <c r="K214" s="2" t="s">
+      <c r="K214" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -9615,7 +9689,7 @@
       <c r="G215" t="s">
         <v>329</v>
       </c>
-      <c r="H215" s="2" t="s">
+      <c r="H215" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I215" t="s">
@@ -9624,7 +9698,7 @@
       <c r="J215" t="s">
         <v>232</v>
       </c>
-      <c r="K215" s="3" t="s">
+      <c r="K215" s="63" t="s">
         <v>17</v>
       </c>
     </row>
@@ -9650,7 +9724,7 @@
       <c r="G216" t="s">
         <v>329</v>
       </c>
-      <c r="H216" s="2" t="s">
+      <c r="H216" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I216" t="s">
@@ -9659,7 +9733,7 @@
       <c r="J216" t="s">
         <v>39</v>
       </c>
-      <c r="K216" s="2" t="s">
+      <c r="K216" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -9685,7 +9759,7 @@
       <c r="G217" t="s">
         <v>329</v>
       </c>
-      <c r="H217" s="2" t="s">
+      <c r="H217" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I217" t="s">
@@ -9694,7 +9768,7 @@
       <c r="J217" t="s">
         <v>32</v>
       </c>
-      <c r="K217" s="2" t="s">
+      <c r="K217" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -9720,7 +9794,7 @@
       <c r="G218" t="s">
         <v>329</v>
       </c>
-      <c r="H218" s="2" t="s">
+      <c r="H218" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I218" t="s">
@@ -9729,7 +9803,7 @@
       <c r="J218" t="s">
         <v>11</v>
       </c>
-      <c r="K218" s="2" t="s">
+      <c r="K218" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -9755,7 +9829,7 @@
       <c r="G219" t="s">
         <v>329</v>
       </c>
-      <c r="H219" s="2" t="s">
+      <c r="H219" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I219" t="s">
@@ -9764,7 +9838,7 @@
       <c r="J219" t="s">
         <v>11</v>
       </c>
-      <c r="K219" s="2" t="s">
+      <c r="K219" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -9790,7 +9864,7 @@
       <c r="G220" t="s">
         <v>329</v>
       </c>
-      <c r="H220" s="2" t="s">
+      <c r="H220" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I220" t="s">
@@ -9799,7 +9873,7 @@
       <c r="J220" t="s">
         <v>11</v>
       </c>
-      <c r="K220" s="2" t="s">
+      <c r="K220" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -9825,7 +9899,7 @@
       <c r="G221" t="s">
         <v>329</v>
       </c>
-      <c r="H221" s="2" t="s">
+      <c r="H221" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I221" t="s">
@@ -9834,7 +9908,7 @@
       <c r="J221" t="s">
         <v>11</v>
       </c>
-      <c r="K221" s="2" t="s">
+      <c r="K221" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -9860,7 +9934,7 @@
       <c r="G222" t="s">
         <v>329</v>
       </c>
-      <c r="H222" s="2" t="s">
+      <c r="H222" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I222" t="s">
@@ -9869,7 +9943,7 @@
       <c r="J222" t="s">
         <v>11</v>
       </c>
-      <c r="K222" s="2" t="s">
+      <c r="K222" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -9895,7 +9969,7 @@
       <c r="G223" t="s">
         <v>329</v>
       </c>
-      <c r="H223" s="2" t="s">
+      <c r="H223" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I223" t="s">
@@ -9904,7 +9978,7 @@
       <c r="J223" t="s">
         <v>11</v>
       </c>
-      <c r="K223" s="2" t="s">
+      <c r="K223" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -9930,7 +10004,7 @@
       <c r="G224" t="s">
         <v>329</v>
       </c>
-      <c r="H224" s="2" t="s">
+      <c r="H224" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I224" t="s">
@@ -9939,7 +10013,7 @@
       <c r="J224" t="s">
         <v>11</v>
       </c>
-      <c r="K224" s="2" t="s">
+      <c r="K224" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -9965,7 +10039,7 @@
       <c r="G225" t="s">
         <v>329</v>
       </c>
-      <c r="H225" s="2" t="s">
+      <c r="H225" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I225" t="s">
@@ -9974,7 +10048,7 @@
       <c r="J225" t="s">
         <v>11</v>
       </c>
-      <c r="K225" s="2" t="s">
+      <c r="K225" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -10000,7 +10074,7 @@
       <c r="G226" t="s">
         <v>329</v>
       </c>
-      <c r="H226" s="2" t="s">
+      <c r="H226" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I226" t="s">
@@ -10009,7 +10083,7 @@
       <c r="J226" t="s">
         <v>26</v>
       </c>
-      <c r="K226" s="2" t="s">
+      <c r="K226" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -10035,7 +10109,7 @@
       <c r="G227" t="s">
         <v>329</v>
       </c>
-      <c r="H227" s="2" t="s">
+      <c r="H227" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I227" t="s">
@@ -10044,7 +10118,7 @@
       <c r="J227" t="s">
         <v>28</v>
       </c>
-      <c r="K227" s="2" t="s">
+      <c r="K227" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -10070,7 +10144,7 @@
       <c r="G228" t="s">
         <v>329</v>
       </c>
-      <c r="H228" s="2" t="s">
+      <c r="H228" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I228" t="s">
@@ -10079,7 +10153,7 @@
       <c r="J228" t="s">
         <v>26</v>
       </c>
-      <c r="K228" s="2" t="s">
+      <c r="K228" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -10105,7 +10179,7 @@
       <c r="G229" t="s">
         <v>329</v>
       </c>
-      <c r="H229" s="2" t="s">
+      <c r="H229" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I229" t="s">
@@ -10114,7 +10188,7 @@
       <c r="J229" t="s">
         <v>26</v>
       </c>
-      <c r="K229" s="2" t="s">
+      <c r="K229" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -10140,7 +10214,7 @@
       <c r="G230" t="s">
         <v>329</v>
       </c>
-      <c r="H230" s="2" t="s">
+      <c r="H230" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I230" t="s">
@@ -10149,7 +10223,7 @@
       <c r="J230" t="s">
         <v>65</v>
       </c>
-      <c r="K230" s="3" t="s">
+      <c r="K230" s="63" t="s">
         <v>17</v>
       </c>
     </row>
@@ -10175,7 +10249,7 @@
       <c r="G231" t="s">
         <v>329</v>
       </c>
-      <c r="H231" s="2" t="s">
+      <c r="H231" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I231" t="s">
@@ -10184,7 +10258,7 @@
       <c r="J231" t="s">
         <v>15</v>
       </c>
-      <c r="K231" s="2" t="s">
+      <c r="K231" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -10210,7 +10284,7 @@
       <c r="G232" t="s">
         <v>329</v>
       </c>
-      <c r="H232" s="2" t="s">
+      <c r="H232" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I232" t="s">
@@ -10219,7 +10293,7 @@
       <c r="J232" t="s">
         <v>11</v>
       </c>
-      <c r="K232" s="2" t="s">
+      <c r="K232" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -10245,7 +10319,7 @@
       <c r="G233" t="s">
         <v>329</v>
       </c>
-      <c r="H233" s="2" t="s">
+      <c r="H233" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I233" t="s">
@@ -10254,7 +10328,7 @@
       <c r="J233" t="s">
         <v>11</v>
       </c>
-      <c r="K233" s="2" t="s">
+      <c r="K233" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -10280,7 +10354,7 @@
       <c r="G234" t="s">
         <v>329</v>
       </c>
-      <c r="H234" s="2" t="s">
+      <c r="H234" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I234" t="s">
@@ -10289,7 +10363,7 @@
       <c r="J234" t="s">
         <v>11</v>
       </c>
-      <c r="K234" s="2" t="s">
+      <c r="K234" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -10315,7 +10389,7 @@
       <c r="G235" t="s">
         <v>329</v>
       </c>
-      <c r="H235" s="2" t="s">
+      <c r="H235" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I235" t="s">
@@ -10324,7 +10398,7 @@
       <c r="J235" t="s">
         <v>11</v>
       </c>
-      <c r="K235" s="2" t="s">
+      <c r="K235" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -10350,7 +10424,7 @@
       <c r="G236" t="s">
         <v>329</v>
       </c>
-      <c r="H236" s="2" t="s">
+      <c r="H236" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I236" t="s">
@@ -10359,7 +10433,7 @@
       <c r="J236" t="s">
         <v>19</v>
       </c>
-      <c r="K236" s="2" t="s">
+      <c r="K236" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -10385,7 +10459,7 @@
       <c r="G237" t="s">
         <v>18</v>
       </c>
-      <c r="H237" s="2" t="s">
+      <c r="H237" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I237" t="s">
@@ -10394,7 +10468,7 @@
       <c r="J237" t="s">
         <v>11</v>
       </c>
-      <c r="K237" s="2" t="s">
+      <c r="K237" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -10420,7 +10494,7 @@
       <c r="G238" t="s">
         <v>18</v>
       </c>
-      <c r="H238" s="2" t="s">
+      <c r="H238" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I238" t="s">
@@ -10429,7 +10503,7 @@
       <c r="J238" t="s">
         <v>11</v>
       </c>
-      <c r="K238" s="2" t="s">
+      <c r="K238" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -10455,7 +10529,7 @@
       <c r="G239" t="s">
         <v>18</v>
       </c>
-      <c r="H239" s="2" t="s">
+      <c r="H239" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I239" t="s">
@@ -10464,7 +10538,7 @@
       <c r="J239" t="s">
         <v>11</v>
       </c>
-      <c r="K239" s="2" t="s">
+      <c r="K239" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -10490,7 +10564,7 @@
       <c r="G240" t="s">
         <v>18</v>
       </c>
-      <c r="H240" s="2" t="s">
+      <c r="H240" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I240" t="s">
@@ -10499,7 +10573,7 @@
       <c r="J240" t="s">
         <v>11</v>
       </c>
-      <c r="K240" s="2" t="s">
+      <c r="K240" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -10525,7 +10599,7 @@
       <c r="G241" t="s">
         <v>18</v>
       </c>
-      <c r="H241" s="2" t="s">
+      <c r="H241" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I241" t="s">
@@ -10534,7 +10608,7 @@
       <c r="J241" t="s">
         <v>11</v>
       </c>
-      <c r="K241" s="2" t="s">
+      <c r="K241" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -10560,7 +10634,7 @@
       <c r="G242" t="s">
         <v>18</v>
       </c>
-      <c r="H242" s="2" t="s">
+      <c r="H242" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I242" t="s">
@@ -10569,7 +10643,7 @@
       <c r="J242" t="s">
         <v>23</v>
       </c>
-      <c r="K242" s="2" t="s">
+      <c r="K242" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -10595,7 +10669,7 @@
       <c r="G243" t="s">
         <v>26</v>
       </c>
-      <c r="H243" s="2" t="s">
+      <c r="H243" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I243" t="s">
@@ -10604,7 +10678,7 @@
       <c r="J243" t="s">
         <v>11</v>
       </c>
-      <c r="K243" s="2" t="s">
+      <c r="K243" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -10630,7 +10704,7 @@
       <c r="G244" t="s">
         <v>26</v>
       </c>
-      <c r="H244" s="2" t="s">
+      <c r="H244" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I244" t="s">
@@ -10639,7 +10713,7 @@
       <c r="J244" t="s">
         <v>11</v>
       </c>
-      <c r="K244" s="2" t="s">
+      <c r="K244" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -10665,7 +10739,7 @@
       <c r="G245" t="s">
         <v>26</v>
       </c>
-      <c r="H245" s="2" t="s">
+      <c r="H245" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I245" t="s">
@@ -10674,7 +10748,7 @@
       <c r="J245" t="s">
         <v>11</v>
       </c>
-      <c r="K245" s="2" t="s">
+      <c r="K245" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -10700,7 +10774,7 @@
       <c r="G246" t="s">
         <v>26</v>
       </c>
-      <c r="H246" s="2" t="s">
+      <c r="H246" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I246" t="s">
@@ -10709,7 +10783,7 @@
       <c r="J246" t="s">
         <v>11</v>
       </c>
-      <c r="K246" s="2" t="s">
+      <c r="K246" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -10735,7 +10809,7 @@
       <c r="G247" t="s">
         <v>129</v>
       </c>
-      <c r="H247" s="2" t="s">
+      <c r="H247" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I247" t="s">
@@ -10744,7 +10818,7 @@
       <c r="J247" t="s">
         <v>11</v>
       </c>
-      <c r="K247" s="2" t="s">
+      <c r="K247" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -10770,7 +10844,7 @@
       <c r="G248" t="s">
         <v>129</v>
       </c>
-      <c r="H248" s="2" t="s">
+      <c r="H248" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I248" t="s">
@@ -10779,7 +10853,7 @@
       <c r="J248" t="s">
         <v>11</v>
       </c>
-      <c r="K248" s="2" t="s">
+      <c r="K248" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -10805,7 +10879,7 @@
       <c r="G249" t="s">
         <v>129</v>
       </c>
-      <c r="H249" s="2" t="s">
+      <c r="H249" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I249" t="s">
@@ -10814,7 +10888,7 @@
       <c r="J249" t="s">
         <v>11</v>
       </c>
-      <c r="K249" s="2" t="s">
+      <c r="K249" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -10840,7 +10914,7 @@
       <c r="G250" t="s">
         <v>129</v>
       </c>
-      <c r="H250" s="2" t="s">
+      <c r="H250" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I250" t="s">
@@ -10849,7 +10923,7 @@
       <c r="J250" t="s">
         <v>54</v>
       </c>
-      <c r="K250" s="3" t="s">
+      <c r="K250" s="63" t="s">
         <v>17</v>
       </c>
     </row>
@@ -10875,7 +10949,7 @@
       <c r="G251" t="s">
         <v>129</v>
       </c>
-      <c r="H251" s="2" t="s">
+      <c r="H251" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I251" t="s">
@@ -10884,7 +10958,7 @@
       <c r="J251" t="s">
         <v>11</v>
       </c>
-      <c r="K251" s="2" t="s">
+      <c r="K251" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -10910,7 +10984,7 @@
       <c r="G252" t="s">
         <v>129</v>
       </c>
-      <c r="H252" s="2" t="s">
+      <c r="H252" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I252" t="s">
@@ -10919,7 +10993,7 @@
       <c r="J252" t="s">
         <v>15</v>
       </c>
-      <c r="K252" s="2" t="s">
+      <c r="K252" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -10945,7 +11019,7 @@
       <c r="G253" t="s">
         <v>129</v>
       </c>
-      <c r="H253" s="2" t="s">
+      <c r="H253" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I253" t="s">
@@ -10954,7 +11028,7 @@
       <c r="J253" t="s">
         <v>19</v>
       </c>
-      <c r="K253" s="2" t="s">
+      <c r="K253" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -10980,7 +11054,7 @@
       <c r="G254" t="s">
         <v>129</v>
       </c>
-      <c r="H254" s="2" t="s">
+      <c r="H254" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I254" t="s">
@@ -10989,7 +11063,7 @@
       <c r="J254" t="s">
         <v>19</v>
       </c>
-      <c r="K254" s="2" t="s">
+      <c r="K254" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -11015,7 +11089,7 @@
       <c r="G255" t="s">
         <v>129</v>
       </c>
-      <c r="H255" s="2" t="s">
+      <c r="H255" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I255" t="s">
@@ -11024,7 +11098,7 @@
       <c r="J255" t="s">
         <v>15</v>
       </c>
-      <c r="K255" s="2" t="s">
+      <c r="K255" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -11050,7 +11124,7 @@
       <c r="G256" t="s">
         <v>129</v>
       </c>
-      <c r="H256" s="2" t="s">
+      <c r="H256" s="60" t="s">
         <v>17</v>
       </c>
       <c r="I256" t="s">
@@ -11059,7 +11133,7 @@
       <c r="J256" t="s">
         <v>38</v>
       </c>
-      <c r="K256" s="3" t="s">
+      <c r="K256" s="63" t="s">
         <v>17</v>
       </c>
     </row>

--- a/CodeQualityAssessor/jasml_0.10_metrics.xlsx
+++ b/CodeQualityAssessor/jasml_0.10_metrics.xlsx
@@ -1781,11 +1781,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
@@ -2584,7 +2592,7 @@
       <c r="G12" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="60" t="s">
+      <c r="H12" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I12" t="s">
@@ -2593,7 +2601,7 @@
       <c r="J12" t="s">
         <v>11</v>
       </c>
-      <c r="K12" s="60" t="s">
+      <c r="K12" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2619,7 +2627,7 @@
       <c r="G13" t="s">
         <v>11</v>
       </c>
-      <c r="H13" s="60" t="s">
+      <c r="H13" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I13" t="s">
@@ -2628,7 +2636,7 @@
       <c r="J13" t="s">
         <v>11</v>
       </c>
-      <c r="K13" s="60" t="s">
+      <c r="K13" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2654,7 +2662,7 @@
       <c r="G14" t="s">
         <v>11</v>
       </c>
-      <c r="H14" s="60" t="s">
+      <c r="H14" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I14" t="s">
@@ -2663,7 +2671,7 @@
       <c r="J14" t="s">
         <v>11</v>
       </c>
-      <c r="K14" s="60" t="s">
+      <c r="K14" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2689,7 +2697,7 @@
       <c r="G15" t="s">
         <v>11</v>
       </c>
-      <c r="H15" s="60" t="s">
+      <c r="H15" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I15" t="s">
@@ -2698,7 +2706,7 @@
       <c r="J15" t="s">
         <v>11</v>
       </c>
-      <c r="K15" s="60" t="s">
+      <c r="K15" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2724,7 +2732,7 @@
       <c r="G16" t="s">
         <v>15</v>
       </c>
-      <c r="H16" s="60" t="s">
+      <c r="H16" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I16" t="s">
@@ -2733,7 +2741,7 @@
       <c r="J16" t="s">
         <v>11</v>
       </c>
-      <c r="K16" s="60" t="s">
+      <c r="K16" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2759,7 +2767,7 @@
       <c r="G17" t="s">
         <v>15</v>
       </c>
-      <c r="H17" s="60" t="s">
+      <c r="H17" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I17" t="s">
@@ -2768,7 +2776,7 @@
       <c r="J17" t="s">
         <v>11</v>
       </c>
-      <c r="K17" s="60" t="s">
+      <c r="K17" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2794,7 +2802,7 @@
       <c r="G18" t="s">
         <v>11</v>
       </c>
-      <c r="H18" s="60" t="s">
+      <c r="H18" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I18" t="s">
@@ -2803,7 +2811,7 @@
       <c r="J18" t="s">
         <v>11</v>
       </c>
-      <c r="K18" s="60" t="s">
+      <c r="K18" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2829,7 +2837,7 @@
       <c r="G19" t="s">
         <v>15</v>
       </c>
-      <c r="H19" s="60" t="s">
+      <c r="H19" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I19" t="s">
@@ -2838,7 +2846,7 @@
       <c r="J19" t="s">
         <v>11</v>
       </c>
-      <c r="K19" s="60" t="s">
+      <c r="K19" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2864,7 +2872,7 @@
       <c r="G20" t="s">
         <v>15</v>
       </c>
-      <c r="H20" s="60" t="s">
+      <c r="H20" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I20" t="s">
@@ -2873,7 +2881,7 @@
       <c r="J20" t="s">
         <v>11</v>
       </c>
-      <c r="K20" s="60" t="s">
+      <c r="K20" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2899,7 +2907,7 @@
       <c r="G21" t="s">
         <v>23</v>
       </c>
-      <c r="H21" s="60" t="s">
+      <c r="H21" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I21" t="s">
@@ -2908,7 +2916,7 @@
       <c r="J21" t="s">
         <v>11</v>
       </c>
-      <c r="K21" s="60" t="s">
+      <c r="K21" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2934,7 +2942,7 @@
       <c r="G22" t="s">
         <v>23</v>
       </c>
-      <c r="H22" s="60" t="s">
+      <c r="H22" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I22" t="s">
@@ -2943,7 +2951,7 @@
       <c r="J22" t="s">
         <v>11</v>
       </c>
-      <c r="K22" s="60" t="s">
+      <c r="K22" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2969,7 +2977,7 @@
       <c r="G23" t="s">
         <v>23</v>
       </c>
-      <c r="H23" s="60" t="s">
+      <c r="H23" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I23" t="s">
@@ -2978,7 +2986,7 @@
       <c r="J23" t="s">
         <v>11</v>
       </c>
-      <c r="K23" s="60" t="s">
+      <c r="K23" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3004,7 +3012,7 @@
       <c r="G24" t="s">
         <v>23</v>
       </c>
-      <c r="H24" s="60" t="s">
+      <c r="H24" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I24" t="s">
@@ -3013,7 +3021,7 @@
       <c r="J24" t="s">
         <v>29</v>
       </c>
-      <c r="K24" s="60" t="s">
+      <c r="K24" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3039,7 +3047,7 @@
       <c r="G25" t="s">
         <v>11</v>
       </c>
-      <c r="H25" s="60" t="s">
+      <c r="H25" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I25" t="s">
@@ -3048,7 +3056,7 @@
       <c r="J25" t="s">
         <v>11</v>
       </c>
-      <c r="K25" s="60" t="s">
+      <c r="K25" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3074,7 +3082,7 @@
       <c r="G26" t="s">
         <v>15</v>
       </c>
-      <c r="H26" s="60" t="s">
+      <c r="H26" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I26" t="s">
@@ -3083,7 +3091,7 @@
       <c r="J26" t="s">
         <v>11</v>
       </c>
-      <c r="K26" s="60" t="s">
+      <c r="K26" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3109,7 +3117,7 @@
       <c r="G27" t="s">
         <v>15</v>
       </c>
-      <c r="H27" s="60" t="s">
+      <c r="H27" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I27" t="s">
@@ -3118,7 +3126,7 @@
       <c r="J27" t="s">
         <v>11</v>
       </c>
-      <c r="K27" s="60" t="s">
+      <c r="K27" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3144,7 +3152,7 @@
       <c r="G28" t="s">
         <v>11</v>
       </c>
-      <c r="H28" s="60" t="s">
+      <c r="H28" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I28" t="s">
@@ -3153,7 +3161,7 @@
       <c r="J28" t="s">
         <v>11</v>
       </c>
-      <c r="K28" s="60" t="s">
+      <c r="K28" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3179,7 +3187,7 @@
       <c r="G29" t="s">
         <v>11</v>
       </c>
-      <c r="H29" s="60" t="s">
+      <c r="H29" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I29" t="s">
@@ -3188,7 +3196,7 @@
       <c r="J29" t="s">
         <v>11</v>
       </c>
-      <c r="K29" s="60" t="s">
+      <c r="K29" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3214,7 +3222,7 @@
       <c r="G30" t="s">
         <v>11</v>
       </c>
-      <c r="H30" s="60" t="s">
+      <c r="H30" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I30" t="s">
@@ -3223,7 +3231,7 @@
       <c r="J30" t="s">
         <v>11</v>
       </c>
-      <c r="K30" s="60" t="s">
+      <c r="K30" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3249,7 +3257,7 @@
       <c r="G31" t="s">
         <v>15</v>
       </c>
-      <c r="H31" s="60" t="s">
+      <c r="H31" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I31" t="s">
@@ -3258,7 +3266,7 @@
       <c r="J31" t="s">
         <v>11</v>
       </c>
-      <c r="K31" s="60" t="s">
+      <c r="K31" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3284,7 +3292,7 @@
       <c r="G32" t="s">
         <v>15</v>
       </c>
-      <c r="H32" s="60" t="s">
+      <c r="H32" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I32" t="s">
@@ -3293,7 +3301,7 @@
       <c r="J32" t="s">
         <v>11</v>
       </c>
-      <c r="K32" s="60" t="s">
+      <c r="K32" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3319,7 +3327,7 @@
       <c r="G33" t="s">
         <v>15</v>
       </c>
-      <c r="H33" s="60" t="s">
+      <c r="H33" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I33" t="s">
@@ -3328,7 +3336,7 @@
       <c r="J33" t="s">
         <v>11</v>
       </c>
-      <c r="K33" s="60" t="s">
+      <c r="K33" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3354,7 +3362,7 @@
       <c r="G34" t="s">
         <v>15</v>
       </c>
-      <c r="H34" s="60" t="s">
+      <c r="H34" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I34" t="s">
@@ -3363,7 +3371,7 @@
       <c r="J34" t="s">
         <v>11</v>
       </c>
-      <c r="K34" s="60" t="s">
+      <c r="K34" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3389,7 +3397,7 @@
       <c r="G35" t="s">
         <v>11</v>
       </c>
-      <c r="H35" s="60" t="s">
+      <c r="H35" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I35" t="s">
@@ -3398,7 +3406,7 @@
       <c r="J35" t="s">
         <v>11</v>
       </c>
-      <c r="K35" s="60" t="s">
+      <c r="K35" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3424,7 +3432,7 @@
       <c r="G36" t="s">
         <v>11</v>
       </c>
-      <c r="H36" s="60" t="s">
+      <c r="H36" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I36" t="s">
@@ -3433,7 +3441,7 @@
       <c r="J36" t="s">
         <v>11</v>
       </c>
-      <c r="K36" s="60" t="s">
+      <c r="K36" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3459,7 +3467,7 @@
       <c r="G37" t="s">
         <v>11</v>
       </c>
-      <c r="H37" s="60" t="s">
+      <c r="H37" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I37" t="s">
@@ -3468,7 +3476,7 @@
       <c r="J37" t="s">
         <v>11</v>
       </c>
-      <c r="K37" s="60" t="s">
+      <c r="K37" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3494,7 +3502,7 @@
       <c r="G38" t="s">
         <v>15</v>
       </c>
-      <c r="H38" s="60" t="s">
+      <c r="H38" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I38" t="s">
@@ -3503,7 +3511,7 @@
       <c r="J38" t="s">
         <v>11</v>
       </c>
-      <c r="K38" s="60" t="s">
+      <c r="K38" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3529,7 +3537,7 @@
       <c r="G39" t="s">
         <v>15</v>
       </c>
-      <c r="H39" s="60" t="s">
+      <c r="H39" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I39" t="s">
@@ -3538,7 +3546,7 @@
       <c r="J39" t="s">
         <v>11</v>
       </c>
-      <c r="K39" s="60" t="s">
+      <c r="K39" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3564,7 +3572,7 @@
       <c r="G40" t="s">
         <v>15</v>
       </c>
-      <c r="H40" s="60" t="s">
+      <c r="H40" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I40" t="s">
@@ -3573,7 +3581,7 @@
       <c r="J40" t="s">
         <v>11</v>
       </c>
-      <c r="K40" s="60" t="s">
+      <c r="K40" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3599,7 +3607,7 @@
       <c r="G41" t="s">
         <v>15</v>
       </c>
-      <c r="H41" s="60" t="s">
+      <c r="H41" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I41" t="s">
@@ -3608,7 +3616,7 @@
       <c r="J41" t="s">
         <v>11</v>
       </c>
-      <c r="K41" s="60" t="s">
+      <c r="K41" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3634,7 +3642,7 @@
       <c r="G42" t="s">
         <v>15</v>
       </c>
-      <c r="H42" s="60" t="s">
+      <c r="H42" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I42" t="s">
@@ -3643,7 +3651,7 @@
       <c r="J42" t="s">
         <v>11</v>
       </c>
-      <c r="K42" s="60" t="s">
+      <c r="K42" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3669,7 +3677,7 @@
       <c r="G43" t="s">
         <v>15</v>
       </c>
-      <c r="H43" s="60" t="s">
+      <c r="H43" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I43" t="s">
@@ -3678,7 +3686,7 @@
       <c r="J43" t="s">
         <v>11</v>
       </c>
-      <c r="K43" s="60" t="s">
+      <c r="K43" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3704,7 +3712,7 @@
       <c r="G44" t="s">
         <v>15</v>
       </c>
-      <c r="H44" s="60" t="s">
+      <c r="H44" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I44" t="s">
@@ -3713,7 +3721,7 @@
       <c r="J44" t="s">
         <v>11</v>
       </c>
-      <c r="K44" s="60" t="s">
+      <c r="K44" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3739,7 +3747,7 @@
       <c r="G45" t="s">
         <v>15</v>
       </c>
-      <c r="H45" s="60" t="s">
+      <c r="H45" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I45" t="s">
@@ -3748,7 +3756,7 @@
       <c r="J45" t="s">
         <v>11</v>
       </c>
-      <c r="K45" s="60" t="s">
+      <c r="K45" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3774,7 +3782,7 @@
       <c r="G46" t="s">
         <v>11</v>
       </c>
-      <c r="H46" s="60" t="s">
+      <c r="H46" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I46" t="s">
@@ -3783,7 +3791,7 @@
       <c r="J46" t="s">
         <v>11</v>
       </c>
-      <c r="K46" s="60" t="s">
+      <c r="K46" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3809,7 +3817,7 @@
       <c r="G47" t="s">
         <v>15</v>
       </c>
-      <c r="H47" s="60" t="s">
+      <c r="H47" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I47" t="s">
@@ -3818,7 +3826,7 @@
       <c r="J47" t="s">
         <v>11</v>
       </c>
-      <c r="K47" s="60" t="s">
+      <c r="K47" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3844,7 +3852,7 @@
       <c r="G48" t="s">
         <v>15</v>
       </c>
-      <c r="H48" s="60" t="s">
+      <c r="H48" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I48" t="s">
@@ -3853,7 +3861,7 @@
       <c r="J48" t="s">
         <v>11</v>
       </c>
-      <c r="K48" s="60" t="s">
+      <c r="K48" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3879,7 +3887,7 @@
       <c r="G49" t="s">
         <v>15</v>
       </c>
-      <c r="H49" s="60" t="s">
+      <c r="H49" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I49" t="s">
@@ -3888,7 +3896,7 @@
       <c r="J49" t="s">
         <v>11</v>
       </c>
-      <c r="K49" s="60" t="s">
+      <c r="K49" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3914,7 +3922,7 @@
       <c r="G50" t="s">
         <v>15</v>
       </c>
-      <c r="H50" s="60" t="s">
+      <c r="H50" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I50" t="s">
@@ -3923,7 +3931,7 @@
       <c r="J50" t="s">
         <v>11</v>
       </c>
-      <c r="K50" s="60" t="s">
+      <c r="K50" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3949,7 +3957,7 @@
       <c r="G51" t="s">
         <v>11</v>
       </c>
-      <c r="H51" s="60" t="s">
+      <c r="H51" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I51" t="s">
@@ -3958,7 +3966,7 @@
       <c r="J51" t="s">
         <v>11</v>
       </c>
-      <c r="K51" s="60" t="s">
+      <c r="K51" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3984,7 +3992,7 @@
       <c r="G52" t="s">
         <v>15</v>
       </c>
-      <c r="H52" s="60" t="s">
+      <c r="H52" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I52" t="s">
@@ -3993,7 +4001,7 @@
       <c r="J52" t="s">
         <v>11</v>
       </c>
-      <c r="K52" s="60" t="s">
+      <c r="K52" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4019,7 +4027,7 @@
       <c r="G53" t="s">
         <v>15</v>
       </c>
-      <c r="H53" s="60" t="s">
+      <c r="H53" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I53" t="s">
@@ -4028,7 +4036,7 @@
       <c r="J53" t="s">
         <v>11</v>
       </c>
-      <c r="K53" s="60" t="s">
+      <c r="K53" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4054,7 +4062,7 @@
       <c r="G54" t="s">
         <v>11</v>
       </c>
-      <c r="H54" s="60" t="s">
+      <c r="H54" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I54" t="s">
@@ -4063,7 +4071,7 @@
       <c r="J54" t="s">
         <v>11</v>
       </c>
-      <c r="K54" s="60" t="s">
+      <c r="K54" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4089,7 +4097,7 @@
       <c r="G55" t="s">
         <v>15</v>
       </c>
-      <c r="H55" s="60" t="s">
+      <c r="H55" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I55" t="s">
@@ -4098,7 +4106,7 @@
       <c r="J55" t="s">
         <v>11</v>
       </c>
-      <c r="K55" s="60" t="s">
+      <c r="K55" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4124,7 +4132,7 @@
       <c r="G56" t="s">
         <v>15</v>
       </c>
-      <c r="H56" s="60" t="s">
+      <c r="H56" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I56" t="s">
@@ -4133,7 +4141,7 @@
       <c r="J56" t="s">
         <v>11</v>
       </c>
-      <c r="K56" s="60" t="s">
+      <c r="K56" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4159,7 +4167,7 @@
       <c r="G57" t="s">
         <v>19</v>
       </c>
-      <c r="H57" s="60" t="s">
+      <c r="H57" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I57" t="s">
@@ -4168,7 +4176,7 @@
       <c r="J57" t="s">
         <v>11</v>
       </c>
-      <c r="K57" s="60" t="s">
+      <c r="K57" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4194,7 +4202,7 @@
       <c r="G58" t="s">
         <v>19</v>
       </c>
-      <c r="H58" s="60" t="s">
+      <c r="H58" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I58" t="s">
@@ -4203,7 +4211,7 @@
       <c r="J58" t="s">
         <v>11</v>
       </c>
-      <c r="K58" s="60" t="s">
+      <c r="K58" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4229,7 +4237,7 @@
       <c r="G59" t="s">
         <v>19</v>
       </c>
-      <c r="H59" s="60" t="s">
+      <c r="H59" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I59" t="s">
@@ -4238,7 +4246,7 @@
       <c r="J59" t="s">
         <v>11</v>
       </c>
-      <c r="K59" s="60" t="s">
+      <c r="K59" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4264,7 +4272,7 @@
       <c r="G60" t="s">
         <v>159</v>
       </c>
-      <c r="H60" s="60" t="s">
+      <c r="H60" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I60" t="s">
@@ -4273,7 +4281,7 @@
       <c r="J60" t="s">
         <v>11</v>
       </c>
-      <c r="K60" s="60" t="s">
+      <c r="K60" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4299,7 +4307,7 @@
       <c r="G61" t="s">
         <v>159</v>
       </c>
-      <c r="H61" s="60" t="s">
+      <c r="H61" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I61" t="s">
@@ -4308,7 +4316,7 @@
       <c r="J61" t="s">
         <v>11</v>
       </c>
-      <c r="K61" s="60" t="s">
+      <c r="K61" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4334,7 +4342,7 @@
       <c r="G62" t="s">
         <v>159</v>
       </c>
-      <c r="H62" s="60" t="s">
+      <c r="H62" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I62" t="s">
@@ -4343,7 +4351,7 @@
       <c r="J62" t="s">
         <v>11</v>
       </c>
-      <c r="K62" s="60" t="s">
+      <c r="K62" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4369,7 +4377,7 @@
       <c r="G63" t="s">
         <v>159</v>
       </c>
-      <c r="H63" s="60" t="s">
+      <c r="H63" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I63" t="s">
@@ -4378,7 +4386,7 @@
       <c r="J63" t="s">
         <v>11</v>
       </c>
-      <c r="K63" s="60" t="s">
+      <c r="K63" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4404,7 +4412,7 @@
       <c r="G64" t="s">
         <v>159</v>
       </c>
-      <c r="H64" s="60" t="s">
+      <c r="H64" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I64" t="s">
@@ -4413,7 +4421,7 @@
       <c r="J64" t="s">
         <v>11</v>
       </c>
-      <c r="K64" s="60" t="s">
+      <c r="K64" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4439,7 +4447,7 @@
       <c r="G65" t="s">
         <v>159</v>
       </c>
-      <c r="H65" s="60" t="s">
+      <c r="H65" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I65" t="s">
@@ -4448,7 +4456,7 @@
       <c r="J65" t="s">
         <v>11</v>
       </c>
-      <c r="K65" s="60" t="s">
+      <c r="K65" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4474,7 +4482,7 @@
       <c r="G66" t="s">
         <v>159</v>
       </c>
-      <c r="H66" s="60" t="s">
+      <c r="H66" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I66" t="s">
@@ -4483,7 +4491,7 @@
       <c r="J66" t="s">
         <v>19</v>
       </c>
-      <c r="K66" s="60" t="s">
+      <c r="K66" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4509,7 +4517,7 @@
       <c r="G67" t="s">
         <v>159</v>
       </c>
-      <c r="H67" s="60" t="s">
+      <c r="H67" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I67" t="s">
@@ -4518,7 +4526,7 @@
       <c r="J67" t="s">
         <v>19</v>
       </c>
-      <c r="K67" s="60" t="s">
+      <c r="K67" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4544,7 +4552,7 @@
       <c r="G68" t="s">
         <v>159</v>
       </c>
-      <c r="H68" s="60" t="s">
+      <c r="H68" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I68" t="s">
@@ -4553,7 +4561,7 @@
       <c r="J68" t="s">
         <v>26</v>
       </c>
-      <c r="K68" s="60" t="s">
+      <c r="K68" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4579,7 +4587,7 @@
       <c r="G69" t="s">
         <v>159</v>
       </c>
-      <c r="H69" s="60" t="s">
+      <c r="H69" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I69" t="s">
@@ -4588,7 +4596,7 @@
       <c r="J69" t="s">
         <v>19</v>
       </c>
-      <c r="K69" s="60" t="s">
+      <c r="K69" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4614,7 +4622,7 @@
       <c r="G70" t="s">
         <v>159</v>
       </c>
-      <c r="H70" s="60" t="s">
+      <c r="H70" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I70" t="s">
@@ -4623,7 +4631,7 @@
       <c r="J70" t="s">
         <v>23</v>
       </c>
-      <c r="K70" s="60" t="s">
+      <c r="K70" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4649,7 +4657,7 @@
       <c r="G71" t="s">
         <v>159</v>
       </c>
-      <c r="H71" s="60" t="s">
+      <c r="H71" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I71" t="s">
@@ -4658,7 +4666,7 @@
       <c r="J71" t="s">
         <v>60</v>
       </c>
-      <c r="K71" s="63" t="s">
+      <c r="K71" s="71" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4684,7 +4692,7 @@
       <c r="G72" t="s">
         <v>159</v>
       </c>
-      <c r="H72" s="60" t="s">
+      <c r="H72" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I72" t="s">
@@ -4693,7 +4701,7 @@
       <c r="J72" t="s">
         <v>18</v>
       </c>
-      <c r="K72" s="63" t="s">
+      <c r="K72" s="71" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4719,7 +4727,7 @@
       <c r="G73" t="s">
         <v>159</v>
       </c>
-      <c r="H73" s="60" t="s">
+      <c r="H73" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I73" t="s">
@@ -4728,7 +4736,7 @@
       <c r="J73" t="s">
         <v>11</v>
       </c>
-      <c r="K73" s="60" t="s">
+      <c r="K73" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4754,7 +4762,7 @@
       <c r="G74" t="s">
         <v>159</v>
       </c>
-      <c r="H74" s="60" t="s">
+      <c r="H74" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I74" t="s">
@@ -4763,7 +4771,7 @@
       <c r="J74" t="s">
         <v>11</v>
       </c>
-      <c r="K74" s="60" t="s">
+      <c r="K74" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4789,7 +4797,7 @@
       <c r="G75" t="s">
         <v>159</v>
       </c>
-      <c r="H75" s="60" t="s">
+      <c r="H75" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I75" t="s">
@@ -4798,7 +4806,7 @@
       <c r="J75" t="s">
         <v>11</v>
       </c>
-      <c r="K75" s="60" t="s">
+      <c r="K75" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4824,7 +4832,7 @@
       <c r="G76" t="s">
         <v>159</v>
       </c>
-      <c r="H76" s="60" t="s">
+      <c r="H76" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I76" t="s">
@@ -4833,7 +4841,7 @@
       <c r="J76" t="s">
         <v>11</v>
       </c>
-      <c r="K76" s="60" t="s">
+      <c r="K76" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4859,7 +4867,7 @@
       <c r="G77" t="s">
         <v>159</v>
       </c>
-      <c r="H77" s="60" t="s">
+      <c r="H77" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I77" t="s">
@@ -4868,7 +4876,7 @@
       <c r="J77" t="s">
         <v>18</v>
       </c>
-      <c r="K77" s="63" t="s">
+      <c r="K77" s="71" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4894,7 +4902,7 @@
       <c r="G78" t="s">
         <v>159</v>
       </c>
-      <c r="H78" s="60" t="s">
+      <c r="H78" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I78" t="s">
@@ -4903,7 +4911,7 @@
       <c r="J78" t="s">
         <v>11</v>
       </c>
-      <c r="K78" s="60" t="s">
+      <c r="K78" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4929,7 +4937,7 @@
       <c r="G79" t="s">
         <v>159</v>
       </c>
-      <c r="H79" s="60" t="s">
+      <c r="H79" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I79" t="s">
@@ -4938,7 +4946,7 @@
       <c r="J79" t="s">
         <v>11</v>
       </c>
-      <c r="K79" s="60" t="s">
+      <c r="K79" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4964,7 +4972,7 @@
       <c r="G80" t="s">
         <v>159</v>
       </c>
-      <c r="H80" s="60" t="s">
+      <c r="H80" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I80" t="s">
@@ -4973,7 +4981,7 @@
       <c r="J80" t="s">
         <v>11</v>
       </c>
-      <c r="K80" s="60" t="s">
+      <c r="K80" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4999,7 +5007,7 @@
       <c r="G81" t="s">
         <v>159</v>
       </c>
-      <c r="H81" s="60" t="s">
+      <c r="H81" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I81" t="s">
@@ -5008,7 +5016,7 @@
       <c r="J81" t="s">
         <v>11</v>
       </c>
-      <c r="K81" s="60" t="s">
+      <c r="K81" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5034,7 +5042,7 @@
       <c r="G82" t="s">
         <v>159</v>
       </c>
-      <c r="H82" s="60" t="s">
+      <c r="H82" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I82" t="s">
@@ -5043,7 +5051,7 @@
       <c r="J82" t="s">
         <v>11</v>
       </c>
-      <c r="K82" s="60" t="s">
+      <c r="K82" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5069,7 +5077,7 @@
       <c r="G83" t="s">
         <v>159</v>
       </c>
-      <c r="H83" s="60" t="s">
+      <c r="H83" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I83" t="s">
@@ -5078,7 +5086,7 @@
       <c r="J83" t="s">
         <v>11</v>
       </c>
-      <c r="K83" s="60" t="s">
+      <c r="K83" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5104,7 +5112,7 @@
       <c r="G84" t="s">
         <v>159</v>
       </c>
-      <c r="H84" s="60" t="s">
+      <c r="H84" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I84" t="s">
@@ -5113,7 +5121,7 @@
       <c r="J84" t="s">
         <v>11</v>
       </c>
-      <c r="K84" s="60" t="s">
+      <c r="K84" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5139,7 +5147,7 @@
       <c r="G85" t="s">
         <v>159</v>
       </c>
-      <c r="H85" s="60" t="s">
+      <c r="H85" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I85" t="s">
@@ -5148,7 +5156,7 @@
       <c r="J85" t="s">
         <v>45</v>
       </c>
-      <c r="K85" s="60" t="s">
+      <c r="K85" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5174,7 +5182,7 @@
       <c r="G86" t="s">
         <v>159</v>
       </c>
-      <c r="H86" s="60" t="s">
+      <c r="H86" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I86" t="s">
@@ -5183,7 +5191,7 @@
       <c r="J86" t="s">
         <v>28</v>
       </c>
-      <c r="K86" s="60" t="s">
+      <c r="K86" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5209,7 +5217,7 @@
       <c r="G87" t="s">
         <v>159</v>
       </c>
-      <c r="H87" s="60" t="s">
+      <c r="H87" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I87" t="s">
@@ -5218,7 +5226,7 @@
       <c r="J87" t="s">
         <v>45</v>
       </c>
-      <c r="K87" s="60" t="s">
+      <c r="K87" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5244,7 +5252,7 @@
       <c r="G88" t="s">
         <v>159</v>
       </c>
-      <c r="H88" s="60" t="s">
+      <c r="H88" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I88" t="s">
@@ -5253,7 +5261,7 @@
       <c r="J88" t="s">
         <v>119</v>
       </c>
-      <c r="K88" s="63" t="s">
+      <c r="K88" s="71" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5279,7 +5287,7 @@
       <c r="G89" t="s">
         <v>159</v>
       </c>
-      <c r="H89" s="60" t="s">
+      <c r="H89" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I89" t="s">
@@ -5288,7 +5296,7 @@
       <c r="J89" t="s">
         <v>19</v>
       </c>
-      <c r="K89" s="60" t="s">
+      <c r="K89" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5314,7 +5322,7 @@
       <c r="G90" t="s">
         <v>159</v>
       </c>
-      <c r="H90" s="60" t="s">
+      <c r="H90" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I90" t="s">
@@ -5323,7 +5331,7 @@
       <c r="J90" t="s">
         <v>11</v>
       </c>
-      <c r="K90" s="60" t="s">
+      <c r="K90" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5349,7 +5357,7 @@
       <c r="G91" t="s">
         <v>224</v>
       </c>
-      <c r="H91" s="60" t="s">
+      <c r="H91" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I91" t="s">
@@ -5358,7 +5366,7 @@
       <c r="J91" t="s">
         <v>11</v>
       </c>
-      <c r="K91" s="60" t="s">
+      <c r="K91" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5384,7 +5392,7 @@
       <c r="G92" t="s">
         <v>224</v>
       </c>
-      <c r="H92" s="60" t="s">
+      <c r="H92" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I92" t="s">
@@ -5393,7 +5401,7 @@
       <c r="J92" t="s">
         <v>11</v>
       </c>
-      <c r="K92" s="60" t="s">
+      <c r="K92" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5419,7 +5427,7 @@
       <c r="G93" t="s">
         <v>224</v>
       </c>
-      <c r="H93" s="60" t="s">
+      <c r="H93" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I93" t="s">
@@ -5428,7 +5436,7 @@
       <c r="J93" t="s">
         <v>11</v>
       </c>
-      <c r="K93" s="60" t="s">
+      <c r="K93" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5454,7 +5462,7 @@
       <c r="G94" t="s">
         <v>224</v>
       </c>
-      <c r="H94" s="60" t="s">
+      <c r="H94" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I94" t="s">
@@ -5463,7 +5471,7 @@
       <c r="J94" t="s">
         <v>11</v>
       </c>
-      <c r="K94" s="60" t="s">
+      <c r="K94" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5489,7 +5497,7 @@
       <c r="G95" t="s">
         <v>224</v>
       </c>
-      <c r="H95" s="60" t="s">
+      <c r="H95" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I95" t="s">
@@ -5498,7 +5506,7 @@
       <c r="J95" t="s">
         <v>54</v>
       </c>
-      <c r="K95" s="63" t="s">
+      <c r="K95" s="71" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5524,7 +5532,7 @@
       <c r="G96" t="s">
         <v>224</v>
       </c>
-      <c r="H96" s="60" t="s">
+      <c r="H96" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I96" t="s">
@@ -5533,7 +5541,7 @@
       <c r="J96" t="s">
         <v>11</v>
       </c>
-      <c r="K96" s="60" t="s">
+      <c r="K96" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5559,7 +5567,7 @@
       <c r="G97" t="s">
         <v>224</v>
       </c>
-      <c r="H97" s="60" t="s">
+      <c r="H97" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I97" t="s">
@@ -5568,7 +5576,7 @@
       <c r="J97" t="s">
         <v>11</v>
       </c>
-      <c r="K97" s="60" t="s">
+      <c r="K97" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5594,7 +5602,7 @@
       <c r="G98" t="s">
         <v>224</v>
       </c>
-      <c r="H98" s="60" t="s">
+      <c r="H98" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I98" t="s">
@@ -5603,7 +5611,7 @@
       <c r="J98" t="s">
         <v>11</v>
       </c>
-      <c r="K98" s="60" t="s">
+      <c r="K98" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5629,7 +5637,7 @@
       <c r="G99" t="s">
         <v>224</v>
       </c>
-      <c r="H99" s="60" t="s">
+      <c r="H99" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I99" t="s">
@@ -5638,7 +5646,7 @@
       <c r="J99" t="s">
         <v>19</v>
       </c>
-      <c r="K99" s="60" t="s">
+      <c r="K99" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5664,7 +5672,7 @@
       <c r="G100" t="s">
         <v>224</v>
       </c>
-      <c r="H100" s="60" t="s">
+      <c r="H100" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I100" t="s">
@@ -5673,7 +5681,7 @@
       <c r="J100" t="s">
         <v>19</v>
       </c>
-      <c r="K100" s="60" t="s">
+      <c r="K100" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5699,7 +5707,7 @@
       <c r="G101" t="s">
         <v>224</v>
       </c>
-      <c r="H101" s="60" t="s">
+      <c r="H101" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I101" t="s">
@@ -5708,7 +5716,7 @@
       <c r="J101" t="s">
         <v>19</v>
       </c>
-      <c r="K101" s="60" t="s">
+      <c r="K101" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5734,7 +5742,7 @@
       <c r="G102" t="s">
         <v>224</v>
       </c>
-      <c r="H102" s="60" t="s">
+      <c r="H102" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I102" t="s">
@@ -5743,7 +5751,7 @@
       <c r="J102" t="s">
         <v>19</v>
       </c>
-      <c r="K102" s="60" t="s">
+      <c r="K102" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5769,7 +5777,7 @@
       <c r="G103" t="s">
         <v>224</v>
       </c>
-      <c r="H103" s="60" t="s">
+      <c r="H103" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I103" t="s">
@@ -5778,7 +5786,7 @@
       <c r="J103" t="s">
         <v>19</v>
       </c>
-      <c r="K103" s="60" t="s">
+      <c r="K103" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5804,7 +5812,7 @@
       <c r="G104" t="s">
         <v>224</v>
       </c>
-      <c r="H104" s="60" t="s">
+      <c r="H104" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I104" t="s">
@@ -5813,7 +5821,7 @@
       <c r="J104" t="s">
         <v>19</v>
       </c>
-      <c r="K104" s="60" t="s">
+      <c r="K104" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5839,7 +5847,7 @@
       <c r="G105" t="s">
         <v>224</v>
       </c>
-      <c r="H105" s="60" t="s">
+      <c r="H105" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I105" t="s">
@@ -5848,7 +5856,7 @@
       <c r="J105" t="s">
         <v>16</v>
       </c>
-      <c r="K105" s="63" t="s">
+      <c r="K105" s="71" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5874,7 +5882,7 @@
       <c r="G106" t="s">
         <v>224</v>
       </c>
-      <c r="H106" s="60" t="s">
+      <c r="H106" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I106" t="s">
@@ -5883,7 +5891,7 @@
       <c r="J106" t="s">
         <v>11</v>
       </c>
-      <c r="K106" s="60" t="s">
+      <c r="K106" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5909,7 +5917,7 @@
       <c r="G107" t="s">
         <v>224</v>
       </c>
-      <c r="H107" s="60" t="s">
+      <c r="H107" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I107" t="s">
@@ -5918,7 +5926,7 @@
       <c r="J107" t="s">
         <v>11</v>
       </c>
-      <c r="K107" s="60" t="s">
+      <c r="K107" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5944,7 +5952,7 @@
       <c r="G108" t="s">
         <v>224</v>
       </c>
-      <c r="H108" s="60" t="s">
+      <c r="H108" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I108" t="s">
@@ -5953,7 +5961,7 @@
       <c r="J108" t="s">
         <v>11</v>
       </c>
-      <c r="K108" s="60" t="s">
+      <c r="K108" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5979,7 +5987,7 @@
       <c r="G109" t="s">
         <v>224</v>
       </c>
-      <c r="H109" s="60" t="s">
+      <c r="H109" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I109" t="s">
@@ -5988,7 +5996,7 @@
       <c r="J109" t="s">
         <v>11</v>
       </c>
-      <c r="K109" s="60" t="s">
+      <c r="K109" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6014,7 +6022,7 @@
       <c r="G110" t="s">
         <v>224</v>
       </c>
-      <c r="H110" s="60" t="s">
+      <c r="H110" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I110" t="s">
@@ -6023,7 +6031,7 @@
       <c r="J110" t="s">
         <v>74</v>
       </c>
-      <c r="K110" s="63" t="s">
+      <c r="K110" s="71" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6049,7 +6057,7 @@
       <c r="G111" t="s">
         <v>224</v>
       </c>
-      <c r="H111" s="60" t="s">
+      <c r="H111" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I111" t="s">
@@ -6058,7 +6066,7 @@
       <c r="J111" t="s">
         <v>11</v>
       </c>
-      <c r="K111" s="60" t="s">
+      <c r="K111" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6084,7 +6092,7 @@
       <c r="G112" t="s">
         <v>15</v>
       </c>
-      <c r="H112" s="60" t="s">
+      <c r="H112" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I112" t="s">
@@ -6093,7 +6101,7 @@
       <c r="J112" t="s">
         <v>11</v>
       </c>
-      <c r="K112" s="60" t="s">
+      <c r="K112" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6119,7 +6127,7 @@
       <c r="G113" t="s">
         <v>15</v>
       </c>
-      <c r="H113" s="60" t="s">
+      <c r="H113" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I113" t="s">
@@ -6128,7 +6136,7 @@
       <c r="J113" t="s">
         <v>11</v>
       </c>
-      <c r="K113" s="60" t="s">
+      <c r="K113" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6154,7 +6162,7 @@
       <c r="G114" t="s">
         <v>275</v>
       </c>
-      <c r="H114" s="63" t="s">
+      <c r="H114" s="71" t="s">
         <v>17</v>
       </c>
       <c r="I114" t="s">
@@ -6163,7 +6171,7 @@
       <c r="J114" t="s">
         <v>29</v>
       </c>
-      <c r="K114" s="60" t="s">
+      <c r="K114" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6189,7 +6197,7 @@
       <c r="G115" t="s">
         <v>275</v>
       </c>
-      <c r="H115" s="63" t="s">
+      <c r="H115" s="71" t="s">
         <v>17</v>
       </c>
       <c r="I115" t="s">
@@ -6198,7 +6206,7 @@
       <c r="J115" t="s">
         <v>32</v>
       </c>
-      <c r="K115" s="60" t="s">
+      <c r="K115" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6224,7 +6232,7 @@
       <c r="G116" t="s">
         <v>275</v>
       </c>
-      <c r="H116" s="63" t="s">
+      <c r="H116" s="71" t="s">
         <v>17</v>
       </c>
       <c r="I116" t="s">
@@ -6233,7 +6241,7 @@
       <c r="J116" t="s">
         <v>23</v>
       </c>
-      <c r="K116" s="60" t="s">
+      <c r="K116" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6259,7 +6267,7 @@
       <c r="G117" t="s">
         <v>275</v>
       </c>
-      <c r="H117" s="63" t="s">
+      <c r="H117" s="71" t="s">
         <v>17</v>
       </c>
       <c r="I117" t="s">
@@ -6268,7 +6276,7 @@
       <c r="J117" t="s">
         <v>41</v>
       </c>
-      <c r="K117" s="60" t="s">
+      <c r="K117" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6294,7 +6302,7 @@
       <c r="G118" t="s">
         <v>275</v>
       </c>
-      <c r="H118" s="63" t="s">
+      <c r="H118" s="71" t="s">
         <v>17</v>
       </c>
       <c r="I118" t="s">
@@ -6303,7 +6311,7 @@
       <c r="J118" t="s">
         <v>41</v>
       </c>
-      <c r="K118" s="60" t="s">
+      <c r="K118" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6329,7 +6337,7 @@
       <c r="G119" t="s">
         <v>275</v>
       </c>
-      <c r="H119" s="63" t="s">
+      <c r="H119" s="71" t="s">
         <v>17</v>
       </c>
       <c r="I119" t="s">
@@ -6338,7 +6346,7 @@
       <c r="J119" t="s">
         <v>23</v>
       </c>
-      <c r="K119" s="60" t="s">
+      <c r="K119" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6364,7 +6372,7 @@
       <c r="G120" t="s">
         <v>275</v>
       </c>
-      <c r="H120" s="63" t="s">
+      <c r="H120" s="71" t="s">
         <v>17</v>
       </c>
       <c r="I120" t="s">
@@ -6373,7 +6381,7 @@
       <c r="J120" t="s">
         <v>19</v>
       </c>
-      <c r="K120" s="60" t="s">
+      <c r="K120" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6399,7 +6407,7 @@
       <c r="G121" t="s">
         <v>275</v>
       </c>
-      <c r="H121" s="63" t="s">
+      <c r="H121" s="71" t="s">
         <v>17</v>
       </c>
       <c r="I121" t="s">
@@ -6408,7 +6416,7 @@
       <c r="J121" t="s">
         <v>65</v>
       </c>
-      <c r="K121" s="63" t="s">
+      <c r="K121" s="71" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6434,7 +6442,7 @@
       <c r="G122" t="s">
         <v>275</v>
       </c>
-      <c r="H122" s="63" t="s">
+      <c r="H122" s="71" t="s">
         <v>17</v>
       </c>
       <c r="I122" t="s">
@@ -6443,7 +6451,7 @@
       <c r="J122" t="s">
         <v>36</v>
       </c>
-      <c r="K122" s="63" t="s">
+      <c r="K122" s="71" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6469,7 +6477,7 @@
       <c r="G123" t="s">
         <v>275</v>
       </c>
-      <c r="H123" s="63" t="s">
+      <c r="H123" s="71" t="s">
         <v>17</v>
       </c>
       <c r="I123" t="s">
@@ -6478,7 +6486,7 @@
       <c r="J123" t="s">
         <v>57</v>
       </c>
-      <c r="K123" s="63" t="s">
+      <c r="K123" s="71" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6504,7 +6512,7 @@
       <c r="G124" t="s">
         <v>275</v>
       </c>
-      <c r="H124" s="63" t="s">
+      <c r="H124" s="71" t="s">
         <v>17</v>
       </c>
       <c r="I124" t="s">
@@ -6513,7 +6521,7 @@
       <c r="J124" t="s">
         <v>29</v>
       </c>
-      <c r="K124" s="60" t="s">
+      <c r="K124" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6539,7 +6547,7 @@
       <c r="G125" t="s">
         <v>275</v>
       </c>
-      <c r="H125" s="63" t="s">
+      <c r="H125" s="71" t="s">
         <v>17</v>
       </c>
       <c r="I125" t="s">
@@ -6548,7 +6556,7 @@
       <c r="J125" t="s">
         <v>26</v>
       </c>
-      <c r="K125" s="60" t="s">
+      <c r="K125" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6574,7 +6582,7 @@
       <c r="G126" t="s">
         <v>275</v>
       </c>
-      <c r="H126" s="63" t="s">
+      <c r="H126" s="71" t="s">
         <v>17</v>
       </c>
       <c r="I126" t="s">
@@ -6583,7 +6591,7 @@
       <c r="J126" t="s">
         <v>11</v>
       </c>
-      <c r="K126" s="60" t="s">
+      <c r="K126" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6609,7 +6617,7 @@
       <c r="G127" t="s">
         <v>275</v>
       </c>
-      <c r="H127" s="63" t="s">
+      <c r="H127" s="71" t="s">
         <v>17</v>
       </c>
       <c r="I127" t="s">
@@ -6618,7 +6626,7 @@
       <c r="J127" t="s">
         <v>19</v>
       </c>
-      <c r="K127" s="60" t="s">
+      <c r="K127" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6644,7 +6652,7 @@
       <c r="G128" t="s">
         <v>275</v>
       </c>
-      <c r="H128" s="63" t="s">
+      <c r="H128" s="71" t="s">
         <v>17</v>
       </c>
       <c r="I128" t="s">
@@ -6653,7 +6661,7 @@
       <c r="J128" t="s">
         <v>26</v>
       </c>
-      <c r="K128" s="60" t="s">
+      <c r="K128" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6679,7 +6687,7 @@
       <c r="G129" t="s">
         <v>275</v>
       </c>
-      <c r="H129" s="63" t="s">
+      <c r="H129" s="71" t="s">
         <v>17</v>
       </c>
       <c r="I129" t="s">
@@ -6688,7 +6696,7 @@
       <c r="J129" t="s">
         <v>15</v>
       </c>
-      <c r="K129" s="60" t="s">
+      <c r="K129" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6714,7 +6722,7 @@
       <c r="G130" t="s">
         <v>275</v>
       </c>
-      <c r="H130" s="63" t="s">
+      <c r="H130" s="71" t="s">
         <v>17</v>
       </c>
       <c r="I130" t="s">
@@ -6723,7 +6731,7 @@
       <c r="J130" t="s">
         <v>19</v>
       </c>
-      <c r="K130" s="60" t="s">
+      <c r="K130" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6749,7 +6757,7 @@
       <c r="G131" t="s">
         <v>275</v>
       </c>
-      <c r="H131" s="63" t="s">
+      <c r="H131" s="71" t="s">
         <v>17</v>
       </c>
       <c r="I131" t="s">
@@ -6758,7 +6766,7 @@
       <c r="J131" t="s">
         <v>215</v>
       </c>
-      <c r="K131" s="63" t="s">
+      <c r="K131" s="71" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6784,7 +6792,7 @@
       <c r="G132" t="s">
         <v>275</v>
       </c>
-      <c r="H132" s="63" t="s">
+      <c r="H132" s="71" t="s">
         <v>17</v>
       </c>
       <c r="I132" t="s">
@@ -6793,7 +6801,7 @@
       <c r="J132" t="s">
         <v>11</v>
       </c>
-      <c r="K132" s="60" t="s">
+      <c r="K132" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6819,7 +6827,7 @@
       <c r="G133" t="s">
         <v>275</v>
       </c>
-      <c r="H133" s="63" t="s">
+      <c r="H133" s="71" t="s">
         <v>17</v>
       </c>
       <c r="I133" t="s">
@@ -6828,7 +6836,7 @@
       <c r="J133" t="s">
         <v>31</v>
       </c>
-      <c r="K133" s="63" t="s">
+      <c r="K133" s="71" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6854,7 +6862,7 @@
       <c r="G134" t="s">
         <v>275</v>
       </c>
-      <c r="H134" s="63" t="s">
+      <c r="H134" s="71" t="s">
         <v>17</v>
       </c>
       <c r="I134" t="s">
@@ -6863,7 +6871,7 @@
       <c r="J134" t="s">
         <v>19</v>
       </c>
-      <c r="K134" s="60" t="s">
+      <c r="K134" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6889,7 +6897,7 @@
       <c r="G135" t="s">
         <v>275</v>
       </c>
-      <c r="H135" s="63" t="s">
+      <c r="H135" s="71" t="s">
         <v>17</v>
       </c>
       <c r="I135" t="s">
@@ -6898,7 +6906,7 @@
       <c r="J135" t="s">
         <v>26</v>
       </c>
-      <c r="K135" s="60" t="s">
+      <c r="K135" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6924,7 +6932,7 @@
       <c r="G136" t="s">
         <v>275</v>
       </c>
-      <c r="H136" s="63" t="s">
+      <c r="H136" s="71" t="s">
         <v>17</v>
       </c>
       <c r="I136" t="s">
@@ -6933,7 +6941,7 @@
       <c r="J136" t="s">
         <v>26</v>
       </c>
-      <c r="K136" s="60" t="s">
+      <c r="K136" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6959,7 +6967,7 @@
       <c r="G137" t="s">
         <v>275</v>
       </c>
-      <c r="H137" s="63" t="s">
+      <c r="H137" s="71" t="s">
         <v>17</v>
       </c>
       <c r="I137" t="s">
@@ -6968,7 +6976,7 @@
       <c r="J137" t="s">
         <v>32</v>
       </c>
-      <c r="K137" s="60" t="s">
+      <c r="K137" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6994,7 +7002,7 @@
       <c r="G138" t="s">
         <v>26</v>
       </c>
-      <c r="H138" s="60" t="s">
+      <c r="H138" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I138" t="s">
@@ -7003,7 +7011,7 @@
       <c r="J138" t="s">
         <v>11</v>
       </c>
-      <c r="K138" s="60" t="s">
+      <c r="K138" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -7029,7 +7037,7 @@
       <c r="G139" t="s">
         <v>26</v>
       </c>
-      <c r="H139" s="60" t="s">
+      <c r="H139" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I139" t="s">
@@ -7038,7 +7046,7 @@
       <c r="J139" t="s">
         <v>15</v>
       </c>
-      <c r="K139" s="60" t="s">
+      <c r="K139" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -7064,7 +7072,7 @@
       <c r="G140" t="s">
         <v>26</v>
       </c>
-      <c r="H140" s="60" t="s">
+      <c r="H140" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I140" t="s">
@@ -7073,7 +7081,7 @@
       <c r="J140" t="s">
         <v>11</v>
       </c>
-      <c r="K140" s="60" t="s">
+      <c r="K140" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -7099,7 +7107,7 @@
       <c r="G141" t="s">
         <v>123</v>
       </c>
-      <c r="H141" s="60" t="s">
+      <c r="H141" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I141" t="s">
@@ -7108,7 +7116,7 @@
       <c r="J141" t="s">
         <v>19</v>
       </c>
-      <c r="K141" s="60" t="s">
+      <c r="K141" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -7134,7 +7142,7 @@
       <c r="G142" t="s">
         <v>123</v>
       </c>
-      <c r="H142" s="60" t="s">
+      <c r="H142" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I142" t="s">
@@ -7143,7 +7151,7 @@
       <c r="J142" t="s">
         <v>99</v>
       </c>
-      <c r="K142" s="63" t="s">
+      <c r="K142" s="71" t="s">
         <v>17</v>
       </c>
     </row>
@@ -7169,7 +7177,7 @@
       <c r="G143" t="s">
         <v>123</v>
       </c>
-      <c r="H143" s="60" t="s">
+      <c r="H143" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I143" t="s">
@@ -7178,7 +7186,7 @@
       <c r="J143" t="s">
         <v>28</v>
       </c>
-      <c r="K143" s="60" t="s">
+      <c r="K143" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -7204,7 +7212,7 @@
       <c r="G144" t="s">
         <v>123</v>
       </c>
-      <c r="H144" s="60" t="s">
+      <c r="H144" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I144" t="s">
@@ -7213,7 +7221,7 @@
       <c r="J144" t="s">
         <v>11</v>
       </c>
-      <c r="K144" s="60" t="s">
+      <c r="K144" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -7239,7 +7247,7 @@
       <c r="G145" t="s">
         <v>123</v>
       </c>
-      <c r="H145" s="60" t="s">
+      <c r="H145" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I145" t="s">
@@ -7248,7 +7256,7 @@
       <c r="J145" t="s">
         <v>11</v>
       </c>
-      <c r="K145" s="60" t="s">
+      <c r="K145" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -7274,7 +7282,7 @@
       <c r="G146" t="s">
         <v>19</v>
       </c>
-      <c r="H146" s="60" t="s">
+      <c r="H146" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I146" t="s">
@@ -7283,7 +7291,7 @@
       <c r="J146" t="s">
         <v>11</v>
       </c>
-      <c r="K146" s="60" t="s">
+      <c r="K146" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -7309,7 +7317,7 @@
       <c r="G147" t="s">
         <v>19</v>
       </c>
-      <c r="H147" s="60" t="s">
+      <c r="H147" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I147" t="s">
@@ -7318,7 +7326,7 @@
       <c r="J147" t="s">
         <v>15</v>
       </c>
-      <c r="K147" s="60" t="s">
+      <c r="K147" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -7344,7 +7352,7 @@
       <c r="G148" t="s">
         <v>347</v>
       </c>
-      <c r="H148" s="63" t="s">
+      <c r="H148" s="71" t="s">
         <v>17</v>
       </c>
       <c r="I148" t="s">
@@ -7353,7 +7361,7 @@
       <c r="J148" t="s">
         <v>11</v>
       </c>
-      <c r="K148" s="60" t="s">
+      <c r="K148" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -7379,7 +7387,7 @@
       <c r="G149" t="s">
         <v>347</v>
       </c>
-      <c r="H149" s="63" t="s">
+      <c r="H149" s="71" t="s">
         <v>17</v>
       </c>
       <c r="I149" t="s">
@@ -7388,7 +7396,7 @@
       <c r="J149" t="s">
         <v>11</v>
       </c>
-      <c r="K149" s="60" t="s">
+      <c r="K149" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -7414,7 +7422,7 @@
       <c r="G150" t="s">
         <v>15</v>
       </c>
-      <c r="H150" s="60" t="s">
+      <c r="H150" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I150" t="s">
@@ -7423,7 +7431,7 @@
       <c r="J150" t="s">
         <v>11</v>
       </c>
-      <c r="K150" s="60" t="s">
+      <c r="K150" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -7449,7 +7457,7 @@
       <c r="G151" t="s">
         <v>15</v>
       </c>
-      <c r="H151" s="60" t="s">
+      <c r="H151" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I151" t="s">
@@ -7458,7 +7466,7 @@
       <c r="J151" t="s">
         <v>11</v>
       </c>
-      <c r="K151" s="60" t="s">
+      <c r="K151" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -7484,7 +7492,7 @@
       <c r="G152" t="s">
         <v>11</v>
       </c>
-      <c r="H152" s="60" t="s">
+      <c r="H152" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I152" t="s">
@@ -7493,7 +7501,7 @@
       <c r="J152" t="s">
         <v>11</v>
       </c>
-      <c r="K152" s="60" t="s">
+      <c r="K152" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -7519,7 +7527,7 @@
       <c r="G153" t="s">
         <v>347</v>
       </c>
-      <c r="H153" s="63" t="s">
+      <c r="H153" s="71" t="s">
         <v>17</v>
       </c>
       <c r="I153" t="s">
@@ -7528,7 +7536,7 @@
       <c r="J153" t="s">
         <v>15</v>
       </c>
-      <c r="K153" s="60" t="s">
+      <c r="K153" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -7554,7 +7562,7 @@
       <c r="G154" t="s">
         <v>347</v>
       </c>
-      <c r="H154" s="63" t="s">
+      <c r="H154" s="71" t="s">
         <v>17</v>
       </c>
       <c r="I154" t="s">
@@ -7563,7 +7571,7 @@
       <c r="J154" t="s">
         <v>29</v>
       </c>
-      <c r="K154" s="60" t="s">
+      <c r="K154" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -7589,7 +7597,7 @@
       <c r="G155" t="s">
         <v>347</v>
       </c>
-      <c r="H155" s="63" t="s">
+      <c r="H155" s="71" t="s">
         <v>17</v>
       </c>
       <c r="I155" t="s">
@@ -7598,7 +7606,7 @@
       <c r="J155" t="s">
         <v>26</v>
       </c>
-      <c r="K155" s="60" t="s">
+      <c r="K155" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -7624,7 +7632,7 @@
       <c r="G156" t="s">
         <v>347</v>
       </c>
-      <c r="H156" s="63" t="s">
+      <c r="H156" s="71" t="s">
         <v>17</v>
       </c>
       <c r="I156" t="s">
@@ -7633,7 +7641,7 @@
       <c r="J156" t="s">
         <v>41</v>
       </c>
-      <c r="K156" s="60" t="s">
+      <c r="K156" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -7659,7 +7667,7 @@
       <c r="G157" t="s">
         <v>347</v>
       </c>
-      <c r="H157" s="63" t="s">
+      <c r="H157" s="71" t="s">
         <v>17</v>
       </c>
       <c r="I157" t="s">
@@ -7668,7 +7676,7 @@
       <c r="J157" t="s">
         <v>19</v>
       </c>
-      <c r="K157" s="60" t="s">
+      <c r="K157" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -7694,7 +7702,7 @@
       <c r="G158" t="s">
         <v>347</v>
       </c>
-      <c r="H158" s="63" t="s">
+      <c r="H158" s="71" t="s">
         <v>17</v>
       </c>
       <c r="I158" t="s">
@@ -7703,7 +7711,7 @@
       <c r="J158" t="s">
         <v>38</v>
       </c>
-      <c r="K158" s="63" t="s">
+      <c r="K158" s="71" t="s">
         <v>17</v>
       </c>
     </row>
@@ -7729,7 +7737,7 @@
       <c r="G159" t="s">
         <v>347</v>
       </c>
-      <c r="H159" s="63" t="s">
+      <c r="H159" s="71" t="s">
         <v>17</v>
       </c>
       <c r="I159" t="s">
@@ -7738,7 +7746,7 @@
       <c r="J159" t="s">
         <v>19</v>
       </c>
-      <c r="K159" s="60" t="s">
+      <c r="K159" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -7764,7 +7772,7 @@
       <c r="G160" t="s">
         <v>347</v>
       </c>
-      <c r="H160" s="63" t="s">
+      <c r="H160" s="71" t="s">
         <v>17</v>
       </c>
       <c r="I160" t="s">
@@ -7773,7 +7781,7 @@
       <c r="J160" t="s">
         <v>32</v>
       </c>
-      <c r="K160" s="60" t="s">
+      <c r="K160" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -7799,7 +7807,7 @@
       <c r="G161" t="s">
         <v>347</v>
       </c>
-      <c r="H161" s="63" t="s">
+      <c r="H161" s="71" t="s">
         <v>17</v>
       </c>
       <c r="I161" t="s">
@@ -7808,7 +7816,7 @@
       <c r="J161" t="s">
         <v>41</v>
       </c>
-      <c r="K161" s="60" t="s">
+      <c r="K161" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -7834,7 +7842,7 @@
       <c r="G162" t="s">
         <v>347</v>
       </c>
-      <c r="H162" s="63" t="s">
+      <c r="H162" s="71" t="s">
         <v>17</v>
       </c>
       <c r="I162" t="s">
@@ -7843,7 +7851,7 @@
       <c r="J162" t="s">
         <v>11</v>
       </c>
-      <c r="K162" s="60" t="s">
+      <c r="K162" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -7869,7 +7877,7 @@
       <c r="G163" t="s">
         <v>347</v>
       </c>
-      <c r="H163" s="63" t="s">
+      <c r="H163" s="71" t="s">
         <v>17</v>
       </c>
       <c r="I163" t="s">
@@ -7878,7 +7886,7 @@
       <c r="J163" t="s">
         <v>330</v>
       </c>
-      <c r="K163" s="63" t="s">
+      <c r="K163" s="71" t="s">
         <v>17</v>
       </c>
     </row>
@@ -7904,7 +7912,7 @@
       <c r="G164" t="s">
         <v>347</v>
       </c>
-      <c r="H164" s="63" t="s">
+      <c r="H164" s="71" t="s">
         <v>17</v>
       </c>
       <c r="I164" t="s">
@@ -7913,7 +7921,7 @@
       <c r="J164" t="s">
         <v>16</v>
       </c>
-      <c r="K164" s="63" t="s">
+      <c r="K164" s="71" t="s">
         <v>17</v>
       </c>
     </row>
@@ -7939,7 +7947,7 @@
       <c r="G165" t="s">
         <v>347</v>
       </c>
-      <c r="H165" s="63" t="s">
+      <c r="H165" s="71" t="s">
         <v>17</v>
       </c>
       <c r="I165" t="s">
@@ -7948,7 +7956,7 @@
       <c r="J165" t="s">
         <v>54</v>
       </c>
-      <c r="K165" s="63" t="s">
+      <c r="K165" s="71" t="s">
         <v>17</v>
       </c>
     </row>
@@ -7974,7 +7982,7 @@
       <c r="G166" t="s">
         <v>347</v>
       </c>
-      <c r="H166" s="63" t="s">
+      <c r="H166" s="71" t="s">
         <v>17</v>
       </c>
       <c r="I166" t="s">
@@ -7983,7 +7991,7 @@
       <c r="J166" t="s">
         <v>31</v>
       </c>
-      <c r="K166" s="63" t="s">
+      <c r="K166" s="71" t="s">
         <v>17</v>
       </c>
     </row>
@@ -8009,7 +8017,7 @@
       <c r="G167" t="s">
         <v>347</v>
       </c>
-      <c r="H167" s="63" t="s">
+      <c r="H167" s="71" t="s">
         <v>17</v>
       </c>
       <c r="I167" t="s">
@@ -8018,7 +8026,7 @@
       <c r="J167" t="s">
         <v>57</v>
       </c>
-      <c r="K167" s="63" t="s">
+      <c r="K167" s="71" t="s">
         <v>17</v>
       </c>
     </row>
@@ -8044,7 +8052,7 @@
       <c r="G168" t="s">
         <v>347</v>
       </c>
-      <c r="H168" s="63" t="s">
+      <c r="H168" s="71" t="s">
         <v>17</v>
       </c>
       <c r="I168" t="s">
@@ -8053,7 +8061,7 @@
       <c r="J168" t="s">
         <v>19</v>
       </c>
-      <c r="K168" s="60" t="s">
+      <c r="K168" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -8079,7 +8087,7 @@
       <c r="G169" t="s">
         <v>347</v>
       </c>
-      <c r="H169" s="63" t="s">
+      <c r="H169" s="71" t="s">
         <v>17</v>
       </c>
       <c r="I169" t="s">
@@ -8088,7 +8096,7 @@
       <c r="J169" t="s">
         <v>26</v>
       </c>
-      <c r="K169" s="60" t="s">
+      <c r="K169" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -8114,7 +8122,7 @@
       <c r="G170" t="s">
         <v>347</v>
       </c>
-      <c r="H170" s="63" t="s">
+      <c r="H170" s="71" t="s">
         <v>17</v>
       </c>
       <c r="I170" t="s">
@@ -8123,7 +8131,7 @@
       <c r="J170" t="s">
         <v>62</v>
       </c>
-      <c r="K170" s="63" t="s">
+      <c r="K170" s="71" t="s">
         <v>17</v>
       </c>
     </row>
@@ -8149,7 +8157,7 @@
       <c r="G171" t="s">
         <v>347</v>
       </c>
-      <c r="H171" s="63" t="s">
+      <c r="H171" s="71" t="s">
         <v>17</v>
       </c>
       <c r="I171" t="s">
@@ -8158,7 +8166,7 @@
       <c r="J171" t="s">
         <v>26</v>
       </c>
-      <c r="K171" s="60" t="s">
+      <c r="K171" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -8184,7 +8192,7 @@
       <c r="G172" t="s">
         <v>347</v>
       </c>
-      <c r="H172" s="63" t="s">
+      <c r="H172" s="71" t="s">
         <v>17</v>
       </c>
       <c r="I172" t="s">
@@ -8193,7 +8201,7 @@
       <c r="J172" t="s">
         <v>28</v>
       </c>
-      <c r="K172" s="60" t="s">
+      <c r="K172" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -8219,7 +8227,7 @@
       <c r="G173" t="s">
         <v>347</v>
       </c>
-      <c r="H173" s="63" t="s">
+      <c r="H173" s="71" t="s">
         <v>17</v>
       </c>
       <c r="I173" t="s">
@@ -8228,7 +8236,7 @@
       <c r="J173" t="s">
         <v>26</v>
       </c>
-      <c r="K173" s="60" t="s">
+      <c r="K173" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -8254,7 +8262,7 @@
       <c r="G174" t="s">
         <v>347</v>
       </c>
-      <c r="H174" s="63" t="s">
+      <c r="H174" s="71" t="s">
         <v>17</v>
       </c>
       <c r="I174" t="s">
@@ -8263,7 +8271,7 @@
       <c r="J174" t="s">
         <v>19</v>
       </c>
-      <c r="K174" s="60" t="s">
+      <c r="K174" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -8289,7 +8297,7 @@
       <c r="G175" t="s">
         <v>347</v>
       </c>
-      <c r="H175" s="63" t="s">
+      <c r="H175" s="71" t="s">
         <v>17</v>
       </c>
       <c r="I175" t="s">
@@ -8298,7 +8306,7 @@
       <c r="J175" t="s">
         <v>29</v>
       </c>
-      <c r="K175" s="60" t="s">
+      <c r="K175" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -8324,7 +8332,7 @@
       <c r="G176" t="s">
         <v>347</v>
       </c>
-      <c r="H176" s="63" t="s">
+      <c r="H176" s="71" t="s">
         <v>17</v>
       </c>
       <c r="I176" t="s">
@@ -8333,7 +8341,7 @@
       <c r="J176" t="s">
         <v>19</v>
       </c>
-      <c r="K176" s="60" t="s">
+      <c r="K176" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -8359,7 +8367,7 @@
       <c r="G177" t="s">
         <v>347</v>
       </c>
-      <c r="H177" s="63" t="s">
+      <c r="H177" s="71" t="s">
         <v>17</v>
       </c>
       <c r="I177" t="s">
@@ -8368,7 +8376,7 @@
       <c r="J177" t="s">
         <v>19</v>
       </c>
-      <c r="K177" s="60" t="s">
+      <c r="K177" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -8394,7 +8402,7 @@
       <c r="G178" t="s">
         <v>347</v>
       </c>
-      <c r="H178" s="63" t="s">
+      <c r="H178" s="71" t="s">
         <v>17</v>
       </c>
       <c r="I178" t="s">
@@ -8403,7 +8411,7 @@
       <c r="J178" t="s">
         <v>11</v>
       </c>
-      <c r="K178" s="60" t="s">
+      <c r="K178" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -8429,7 +8437,7 @@
       <c r="G179" t="s">
         <v>347</v>
       </c>
-      <c r="H179" s="63" t="s">
+      <c r="H179" s="71" t="s">
         <v>17</v>
       </c>
       <c r="I179" t="s">
@@ -8438,7 +8446,7 @@
       <c r="J179" t="s">
         <v>11</v>
       </c>
-      <c r="K179" s="60" t="s">
+      <c r="K179" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -8464,7 +8472,7 @@
       <c r="G180" t="s">
         <v>43</v>
       </c>
-      <c r="H180" s="60" t="s">
+      <c r="H180" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I180" t="s">
@@ -8473,7 +8481,7 @@
       <c r="J180" t="s">
         <v>11</v>
       </c>
-      <c r="K180" s="60" t="s">
+      <c r="K180" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -8499,7 +8507,7 @@
       <c r="G181" t="s">
         <v>43</v>
       </c>
-      <c r="H181" s="60" t="s">
+      <c r="H181" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I181" t="s">
@@ -8508,7 +8516,7 @@
       <c r="J181" t="s">
         <v>11</v>
       </c>
-      <c r="K181" s="60" t="s">
+      <c r="K181" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -8534,7 +8542,7 @@
       <c r="G182" t="s">
         <v>43</v>
       </c>
-      <c r="H182" s="60" t="s">
+      <c r="H182" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I182" t="s">
@@ -8543,7 +8551,7 @@
       <c r="J182" t="s">
         <v>15</v>
       </c>
-      <c r="K182" s="60" t="s">
+      <c r="K182" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -8569,7 +8577,7 @@
       <c r="G183" t="s">
         <v>43</v>
       </c>
-      <c r="H183" s="60" t="s">
+      <c r="H183" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I183" t="s">
@@ -8578,7 +8586,7 @@
       <c r="J183" t="s">
         <v>15</v>
       </c>
-      <c r="K183" s="60" t="s">
+      <c r="K183" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -8604,7 +8612,7 @@
       <c r="G184" t="s">
         <v>43</v>
       </c>
-      <c r="H184" s="60" t="s">
+      <c r="H184" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I184" t="s">
@@ -8613,7 +8621,7 @@
       <c r="J184" t="s">
         <v>15</v>
       </c>
-      <c r="K184" s="60" t="s">
+      <c r="K184" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -8639,7 +8647,7 @@
       <c r="G185" t="s">
         <v>43</v>
       </c>
-      <c r="H185" s="60" t="s">
+      <c r="H185" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I185" t="s">
@@ -8648,7 +8656,7 @@
       <c r="J185" t="s">
         <v>15</v>
       </c>
-      <c r="K185" s="60" t="s">
+      <c r="K185" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -8674,7 +8682,7 @@
       <c r="G186" t="s">
         <v>43</v>
       </c>
-      <c r="H186" s="60" t="s">
+      <c r="H186" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I186" t="s">
@@ -8683,7 +8691,7 @@
       <c r="J186" t="s">
         <v>15</v>
       </c>
-      <c r="K186" s="60" t="s">
+      <c r="K186" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -8709,7 +8717,7 @@
       <c r="G187" t="s">
         <v>43</v>
       </c>
-      <c r="H187" s="60" t="s">
+      <c r="H187" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I187" t="s">
@@ -8718,7 +8726,7 @@
       <c r="J187" t="s">
         <v>15</v>
       </c>
-      <c r="K187" s="60" t="s">
+      <c r="K187" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -8744,7 +8752,7 @@
       <c r="G188" t="s">
         <v>43</v>
       </c>
-      <c r="H188" s="60" t="s">
+      <c r="H188" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I188" t="s">
@@ -8753,7 +8761,7 @@
       <c r="J188" t="s">
         <v>15</v>
       </c>
-      <c r="K188" s="60" t="s">
+      <c r="K188" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -8779,7 +8787,7 @@
       <c r="G189" t="s">
         <v>43</v>
       </c>
-      <c r="H189" s="60" t="s">
+      <c r="H189" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I189" t="s">
@@ -8788,7 +8796,7 @@
       <c r="J189" t="s">
         <v>15</v>
       </c>
-      <c r="K189" s="60" t="s">
+      <c r="K189" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -8814,7 +8822,7 @@
       <c r="G190" t="s">
         <v>43</v>
       </c>
-      <c r="H190" s="60" t="s">
+      <c r="H190" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I190" t="s">
@@ -8823,7 +8831,7 @@
       <c r="J190" t="s">
         <v>15</v>
       </c>
-      <c r="K190" s="60" t="s">
+      <c r="K190" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -8849,7 +8857,7 @@
       <c r="G191" t="s">
         <v>43</v>
       </c>
-      <c r="H191" s="60" t="s">
+      <c r="H191" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I191" t="s">
@@ -8858,7 +8866,7 @@
       <c r="J191" t="s">
         <v>15</v>
       </c>
-      <c r="K191" s="60" t="s">
+      <c r="K191" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -8884,7 +8892,7 @@
       <c r="G192" t="s">
         <v>43</v>
       </c>
-      <c r="H192" s="60" t="s">
+      <c r="H192" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I192" t="s">
@@ -8893,7 +8901,7 @@
       <c r="J192" t="s">
         <v>15</v>
       </c>
-      <c r="K192" s="60" t="s">
+      <c r="K192" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -8919,7 +8927,7 @@
       <c r="G193" t="s">
         <v>43</v>
       </c>
-      <c r="H193" s="60" t="s">
+      <c r="H193" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I193" t="s">
@@ -8928,7 +8936,7 @@
       <c r="J193" t="s">
         <v>15</v>
       </c>
-      <c r="K193" s="60" t="s">
+      <c r="K193" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -8954,7 +8962,7 @@
       <c r="G194" t="s">
         <v>43</v>
       </c>
-      <c r="H194" s="60" t="s">
+      <c r="H194" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I194" t="s">
@@ -8963,7 +8971,7 @@
       <c r="J194" t="s">
         <v>15</v>
       </c>
-      <c r="K194" s="60" t="s">
+      <c r="K194" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -8989,7 +8997,7 @@
       <c r="G195" t="s">
         <v>43</v>
       </c>
-      <c r="H195" s="60" t="s">
+      <c r="H195" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I195" t="s">
@@ -8998,7 +9006,7 @@
       <c r="J195" t="s">
         <v>15</v>
       </c>
-      <c r="K195" s="60" t="s">
+      <c r="K195" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -9024,7 +9032,7 @@
       <c r="G196" t="s">
         <v>43</v>
       </c>
-      <c r="H196" s="60" t="s">
+      <c r="H196" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I196" t="s">
@@ -9033,7 +9041,7 @@
       <c r="J196" t="s">
         <v>29</v>
       </c>
-      <c r="K196" s="60" t="s">
+      <c r="K196" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -9059,7 +9067,7 @@
       <c r="G197" t="s">
         <v>43</v>
       </c>
-      <c r="H197" s="60" t="s">
+      <c r="H197" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I197" t="s">
@@ -9068,7 +9076,7 @@
       <c r="J197" t="s">
         <v>15</v>
       </c>
-      <c r="K197" s="60" t="s">
+      <c r="K197" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -9094,7 +9102,7 @@
       <c r="G198" t="s">
         <v>43</v>
       </c>
-      <c r="H198" s="60" t="s">
+      <c r="H198" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I198" t="s">
@@ -9103,7 +9111,7 @@
       <c r="J198" t="s">
         <v>15</v>
       </c>
-      <c r="K198" s="60" t="s">
+      <c r="K198" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -9129,7 +9137,7 @@
       <c r="G199" t="s">
         <v>43</v>
       </c>
-      <c r="H199" s="60" t="s">
+      <c r="H199" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I199" t="s">
@@ -9138,7 +9146,7 @@
       <c r="J199" t="s">
         <v>29</v>
       </c>
-      <c r="K199" s="60" t="s">
+      <c r="K199" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -9164,7 +9172,7 @@
       <c r="G200" t="s">
         <v>43</v>
       </c>
-      <c r="H200" s="60" t="s">
+      <c r="H200" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I200" t="s">
@@ -9173,7 +9181,7 @@
       <c r="J200" t="s">
         <v>29</v>
       </c>
-      <c r="K200" s="60" t="s">
+      <c r="K200" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -9199,7 +9207,7 @@
       <c r="G201" t="s">
         <v>43</v>
       </c>
-      <c r="H201" s="60" t="s">
+      <c r="H201" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I201" t="s">
@@ -9208,7 +9216,7 @@
       <c r="J201" t="s">
         <v>29</v>
       </c>
-      <c r="K201" s="60" t="s">
+      <c r="K201" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -9234,7 +9242,7 @@
       <c r="G202" t="s">
         <v>43</v>
       </c>
-      <c r="H202" s="60" t="s">
+      <c r="H202" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I202" t="s">
@@ -9243,7 +9251,7 @@
       <c r="J202" t="s">
         <v>29</v>
       </c>
-      <c r="K202" s="60" t="s">
+      <c r="K202" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -9269,7 +9277,7 @@
       <c r="G203" t="s">
         <v>43</v>
       </c>
-      <c r="H203" s="60" t="s">
+      <c r="H203" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I203" t="s">
@@ -9278,7 +9286,7 @@
       <c r="J203" t="s">
         <v>15</v>
       </c>
-      <c r="K203" s="60" t="s">
+      <c r="K203" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -9304,7 +9312,7 @@
       <c r="G204" t="s">
         <v>43</v>
       </c>
-      <c r="H204" s="60" t="s">
+      <c r="H204" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I204" t="s">
@@ -9313,7 +9321,7 @@
       <c r="J204" t="s">
         <v>11</v>
       </c>
-      <c r="K204" s="60" t="s">
+      <c r="K204" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -9339,7 +9347,7 @@
       <c r="G205" t="s">
         <v>329</v>
       </c>
-      <c r="H205" s="60" t="s">
+      <c r="H205" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I205" t="s">
@@ -9348,7 +9356,7 @@
       <c r="J205" t="s">
         <v>11</v>
       </c>
-      <c r="K205" s="60" t="s">
+      <c r="K205" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -9374,7 +9382,7 @@
       <c r="G206" t="s">
         <v>329</v>
       </c>
-      <c r="H206" s="60" t="s">
+      <c r="H206" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I206" t="s">
@@ -9383,7 +9391,7 @@
       <c r="J206" t="s">
         <v>11</v>
       </c>
-      <c r="K206" s="60" t="s">
+      <c r="K206" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -9409,7 +9417,7 @@
       <c r="G207" t="s">
         <v>329</v>
       </c>
-      <c r="H207" s="60" t="s">
+      <c r="H207" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I207" t="s">
@@ -9418,7 +9426,7 @@
       <c r="J207" t="s">
         <v>11</v>
       </c>
-      <c r="K207" s="60" t="s">
+      <c r="K207" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -9444,7 +9452,7 @@
       <c r="G208" t="s">
         <v>329</v>
       </c>
-      <c r="H208" s="60" t="s">
+      <c r="H208" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I208" t="s">
@@ -9453,7 +9461,7 @@
       <c r="J208" t="s">
         <v>11</v>
       </c>
-      <c r="K208" s="60" t="s">
+      <c r="K208" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -9479,7 +9487,7 @@
       <c r="G209" t="s">
         <v>329</v>
       </c>
-      <c r="H209" s="60" t="s">
+      <c r="H209" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I209" t="s">
@@ -9488,7 +9496,7 @@
       <c r="J209" t="s">
         <v>11</v>
       </c>
-      <c r="K209" s="60" t="s">
+      <c r="K209" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -9514,7 +9522,7 @@
       <c r="G210" t="s">
         <v>329</v>
       </c>
-      <c r="H210" s="60" t="s">
+      <c r="H210" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I210" t="s">
@@ -9523,7 +9531,7 @@
       <c r="J210" t="s">
         <v>11</v>
       </c>
-      <c r="K210" s="60" t="s">
+      <c r="K210" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -9549,7 +9557,7 @@
       <c r="G211" t="s">
         <v>329</v>
       </c>
-      <c r="H211" s="60" t="s">
+      <c r="H211" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I211" t="s">
@@ -9558,7 +9566,7 @@
       <c r="J211" t="s">
         <v>11</v>
       </c>
-      <c r="K211" s="60" t="s">
+      <c r="K211" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -9584,7 +9592,7 @@
       <c r="G212" t="s">
         <v>329</v>
       </c>
-      <c r="H212" s="60" t="s">
+      <c r="H212" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I212" t="s">
@@ -9593,7 +9601,7 @@
       <c r="J212" t="s">
         <v>11</v>
       </c>
-      <c r="K212" s="60" t="s">
+      <c r="K212" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -9619,7 +9627,7 @@
       <c r="G213" t="s">
         <v>329</v>
       </c>
-      <c r="H213" s="60" t="s">
+      <c r="H213" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I213" t="s">
@@ -9628,7 +9636,7 @@
       <c r="J213" t="s">
         <v>11</v>
       </c>
-      <c r="K213" s="60" t="s">
+      <c r="K213" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -9654,7 +9662,7 @@
       <c r="G214" t="s">
         <v>329</v>
       </c>
-      <c r="H214" s="60" t="s">
+      <c r="H214" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I214" t="s">
@@ -9663,7 +9671,7 @@
       <c r="J214" t="s">
         <v>11</v>
       </c>
-      <c r="K214" s="60" t="s">
+      <c r="K214" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -9689,7 +9697,7 @@
       <c r="G215" t="s">
         <v>329</v>
       </c>
-      <c r="H215" s="60" t="s">
+      <c r="H215" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I215" t="s">
@@ -9698,7 +9706,7 @@
       <c r="J215" t="s">
         <v>232</v>
       </c>
-      <c r="K215" s="63" t="s">
+      <c r="K215" s="71" t="s">
         <v>17</v>
       </c>
     </row>
@@ -9724,7 +9732,7 @@
       <c r="G216" t="s">
         <v>329</v>
       </c>
-      <c r="H216" s="60" t="s">
+      <c r="H216" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I216" t="s">
@@ -9733,7 +9741,7 @@
       <c r="J216" t="s">
         <v>39</v>
       </c>
-      <c r="K216" s="60" t="s">
+      <c r="K216" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -9759,7 +9767,7 @@
       <c r="G217" t="s">
         <v>329</v>
       </c>
-      <c r="H217" s="60" t="s">
+      <c r="H217" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I217" t="s">
@@ -9768,7 +9776,7 @@
       <c r="J217" t="s">
         <v>32</v>
       </c>
-      <c r="K217" s="60" t="s">
+      <c r="K217" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -9794,7 +9802,7 @@
       <c r="G218" t="s">
         <v>329</v>
       </c>
-      <c r="H218" s="60" t="s">
+      <c r="H218" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I218" t="s">
@@ -9803,7 +9811,7 @@
       <c r="J218" t="s">
         <v>11</v>
       </c>
-      <c r="K218" s="60" t="s">
+      <c r="K218" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -9829,7 +9837,7 @@
       <c r="G219" t="s">
         <v>329</v>
       </c>
-      <c r="H219" s="60" t="s">
+      <c r="H219" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I219" t="s">
@@ -9838,7 +9846,7 @@
       <c r="J219" t="s">
         <v>11</v>
       </c>
-      <c r="K219" s="60" t="s">
+      <c r="K219" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -9864,7 +9872,7 @@
       <c r="G220" t="s">
         <v>329</v>
       </c>
-      <c r="H220" s="60" t="s">
+      <c r="H220" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I220" t="s">
@@ -9873,7 +9881,7 @@
       <c r="J220" t="s">
         <v>11</v>
       </c>
-      <c r="K220" s="60" t="s">
+      <c r="K220" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -9899,7 +9907,7 @@
       <c r="G221" t="s">
         <v>329</v>
       </c>
-      <c r="H221" s="60" t="s">
+      <c r="H221" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I221" t="s">
@@ -9908,7 +9916,7 @@
       <c r="J221" t="s">
         <v>11</v>
       </c>
-      <c r="K221" s="60" t="s">
+      <c r="K221" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -9934,7 +9942,7 @@
       <c r="G222" t="s">
         <v>329</v>
       </c>
-      <c r="H222" s="60" t="s">
+      <c r="H222" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I222" t="s">
@@ -9943,7 +9951,7 @@
       <c r="J222" t="s">
         <v>11</v>
       </c>
-      <c r="K222" s="60" t="s">
+      <c r="K222" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -9969,7 +9977,7 @@
       <c r="G223" t="s">
         <v>329</v>
       </c>
-      <c r="H223" s="60" t="s">
+      <c r="H223" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I223" t="s">
@@ -9978,7 +9986,7 @@
       <c r="J223" t="s">
         <v>11</v>
       </c>
-      <c r="K223" s="60" t="s">
+      <c r="K223" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -10004,7 +10012,7 @@
       <c r="G224" t="s">
         <v>329</v>
       </c>
-      <c r="H224" s="60" t="s">
+      <c r="H224" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I224" t="s">
@@ -10013,7 +10021,7 @@
       <c r="J224" t="s">
         <v>11</v>
       </c>
-      <c r="K224" s="60" t="s">
+      <c r="K224" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -10039,7 +10047,7 @@
       <c r="G225" t="s">
         <v>329</v>
       </c>
-      <c r="H225" s="60" t="s">
+      <c r="H225" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I225" t="s">
@@ -10048,7 +10056,7 @@
       <c r="J225" t="s">
         <v>11</v>
       </c>
-      <c r="K225" s="60" t="s">
+      <c r="K225" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -10074,7 +10082,7 @@
       <c r="G226" t="s">
         <v>329</v>
       </c>
-      <c r="H226" s="60" t="s">
+      <c r="H226" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I226" t="s">
@@ -10083,7 +10091,7 @@
       <c r="J226" t="s">
         <v>26</v>
       </c>
-      <c r="K226" s="60" t="s">
+      <c r="K226" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -10109,7 +10117,7 @@
       <c r="G227" t="s">
         <v>329</v>
       </c>
-      <c r="H227" s="60" t="s">
+      <c r="H227" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I227" t="s">
@@ -10118,7 +10126,7 @@
       <c r="J227" t="s">
         <v>28</v>
       </c>
-      <c r="K227" s="60" t="s">
+      <c r="K227" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -10144,7 +10152,7 @@
       <c r="G228" t="s">
         <v>329</v>
       </c>
-      <c r="H228" s="60" t="s">
+      <c r="H228" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I228" t="s">
@@ -10153,7 +10161,7 @@
       <c r="J228" t="s">
         <v>26</v>
       </c>
-      <c r="K228" s="60" t="s">
+      <c r="K228" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -10179,7 +10187,7 @@
       <c r="G229" t="s">
         <v>329</v>
       </c>
-      <c r="H229" s="60" t="s">
+      <c r="H229" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I229" t="s">
@@ -10188,7 +10196,7 @@
       <c r="J229" t="s">
         <v>26</v>
       </c>
-      <c r="K229" s="60" t="s">
+      <c r="K229" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -10214,7 +10222,7 @@
       <c r="G230" t="s">
         <v>329</v>
       </c>
-      <c r="H230" s="60" t="s">
+      <c r="H230" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I230" t="s">
@@ -10223,7 +10231,7 @@
       <c r="J230" t="s">
         <v>65</v>
       </c>
-      <c r="K230" s="63" t="s">
+      <c r="K230" s="71" t="s">
         <v>17</v>
       </c>
     </row>
@@ -10249,7 +10257,7 @@
       <c r="G231" t="s">
         <v>329</v>
       </c>
-      <c r="H231" s="60" t="s">
+      <c r="H231" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I231" t="s">
@@ -10258,7 +10266,7 @@
       <c r="J231" t="s">
         <v>15</v>
       </c>
-      <c r="K231" s="60" t="s">
+      <c r="K231" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -10284,7 +10292,7 @@
       <c r="G232" t="s">
         <v>329</v>
       </c>
-      <c r="H232" s="60" t="s">
+      <c r="H232" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I232" t="s">
@@ -10293,7 +10301,7 @@
       <c r="J232" t="s">
         <v>11</v>
       </c>
-      <c r="K232" s="60" t="s">
+      <c r="K232" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -10319,7 +10327,7 @@
       <c r="G233" t="s">
         <v>329</v>
       </c>
-      <c r="H233" s="60" t="s">
+      <c r="H233" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I233" t="s">
@@ -10328,7 +10336,7 @@
       <c r="J233" t="s">
         <v>11</v>
       </c>
-      <c r="K233" s="60" t="s">
+      <c r="K233" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -10354,7 +10362,7 @@
       <c r="G234" t="s">
         <v>329</v>
       </c>
-      <c r="H234" s="60" t="s">
+      <c r="H234" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I234" t="s">
@@ -10363,7 +10371,7 @@
       <c r="J234" t="s">
         <v>11</v>
       </c>
-      <c r="K234" s="60" t="s">
+      <c r="K234" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -10389,7 +10397,7 @@
       <c r="G235" t="s">
         <v>329</v>
       </c>
-      <c r="H235" s="60" t="s">
+      <c r="H235" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I235" t="s">
@@ -10398,7 +10406,7 @@
       <c r="J235" t="s">
         <v>11</v>
       </c>
-      <c r="K235" s="60" t="s">
+      <c r="K235" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -10424,7 +10432,7 @@
       <c r="G236" t="s">
         <v>329</v>
       </c>
-      <c r="H236" s="60" t="s">
+      <c r="H236" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I236" t="s">
@@ -10433,7 +10441,7 @@
       <c r="J236" t="s">
         <v>19</v>
       </c>
-      <c r="K236" s="60" t="s">
+      <c r="K236" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -10459,7 +10467,7 @@
       <c r="G237" t="s">
         <v>18</v>
       </c>
-      <c r="H237" s="60" t="s">
+      <c r="H237" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I237" t="s">
@@ -10468,7 +10476,7 @@
       <c r="J237" t="s">
         <v>11</v>
       </c>
-      <c r="K237" s="60" t="s">
+      <c r="K237" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -10494,7 +10502,7 @@
       <c r="G238" t="s">
         <v>18</v>
       </c>
-      <c r="H238" s="60" t="s">
+      <c r="H238" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I238" t="s">
@@ -10503,7 +10511,7 @@
       <c r="J238" t="s">
         <v>11</v>
       </c>
-      <c r="K238" s="60" t="s">
+      <c r="K238" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -10529,7 +10537,7 @@
       <c r="G239" t="s">
         <v>18</v>
       </c>
-      <c r="H239" s="60" t="s">
+      <c r="H239" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I239" t="s">
@@ -10538,7 +10546,7 @@
       <c r="J239" t="s">
         <v>11</v>
       </c>
-      <c r="K239" s="60" t="s">
+      <c r="K239" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -10564,7 +10572,7 @@
       <c r="G240" t="s">
         <v>18</v>
       </c>
-      <c r="H240" s="60" t="s">
+      <c r="H240" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I240" t="s">
@@ -10573,7 +10581,7 @@
       <c r="J240" t="s">
         <v>11</v>
       </c>
-      <c r="K240" s="60" t="s">
+      <c r="K240" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -10599,7 +10607,7 @@
       <c r="G241" t="s">
         <v>18</v>
       </c>
-      <c r="H241" s="60" t="s">
+      <c r="H241" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I241" t="s">
@@ -10608,7 +10616,7 @@
       <c r="J241" t="s">
         <v>11</v>
       </c>
-      <c r="K241" s="60" t="s">
+      <c r="K241" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -10634,7 +10642,7 @@
       <c r="G242" t="s">
         <v>18</v>
       </c>
-      <c r="H242" s="60" t="s">
+      <c r="H242" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I242" t="s">
@@ -10643,7 +10651,7 @@
       <c r="J242" t="s">
         <v>23</v>
       </c>
-      <c r="K242" s="60" t="s">
+      <c r="K242" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -10669,7 +10677,7 @@
       <c r="G243" t="s">
         <v>26</v>
       </c>
-      <c r="H243" s="60" t="s">
+      <c r="H243" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I243" t="s">
@@ -10678,7 +10686,7 @@
       <c r="J243" t="s">
         <v>11</v>
       </c>
-      <c r="K243" s="60" t="s">
+      <c r="K243" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -10704,7 +10712,7 @@
       <c r="G244" t="s">
         <v>26</v>
       </c>
-      <c r="H244" s="60" t="s">
+      <c r="H244" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I244" t="s">
@@ -10713,7 +10721,7 @@
       <c r="J244" t="s">
         <v>11</v>
       </c>
-      <c r="K244" s="60" t="s">
+      <c r="K244" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -10739,7 +10747,7 @@
       <c r="G245" t="s">
         <v>26</v>
       </c>
-      <c r="H245" s="60" t="s">
+      <c r="H245" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I245" t="s">
@@ -10748,7 +10756,7 @@
       <c r="J245" t="s">
         <v>11</v>
       </c>
-      <c r="K245" s="60" t="s">
+      <c r="K245" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -10774,7 +10782,7 @@
       <c r="G246" t="s">
         <v>26</v>
       </c>
-      <c r="H246" s="60" t="s">
+      <c r="H246" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I246" t="s">
@@ -10783,7 +10791,7 @@
       <c r="J246" t="s">
         <v>11</v>
       </c>
-      <c r="K246" s="60" t="s">
+      <c r="K246" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -10809,7 +10817,7 @@
       <c r="G247" t="s">
         <v>129</v>
       </c>
-      <c r="H247" s="60" t="s">
+      <c r="H247" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I247" t="s">
@@ -10818,7 +10826,7 @@
       <c r="J247" t="s">
         <v>11</v>
       </c>
-      <c r="K247" s="60" t="s">
+      <c r="K247" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -10844,7 +10852,7 @@
       <c r="G248" t="s">
         <v>129</v>
       </c>
-      <c r="H248" s="60" t="s">
+      <c r="H248" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I248" t="s">
@@ -10853,7 +10861,7 @@
       <c r="J248" t="s">
         <v>11</v>
       </c>
-      <c r="K248" s="60" t="s">
+      <c r="K248" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -10879,7 +10887,7 @@
       <c r="G249" t="s">
         <v>129</v>
       </c>
-      <c r="H249" s="60" t="s">
+      <c r="H249" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I249" t="s">
@@ -10888,7 +10896,7 @@
       <c r="J249" t="s">
         <v>11</v>
       </c>
-      <c r="K249" s="60" t="s">
+      <c r="K249" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -10914,7 +10922,7 @@
       <c r="G250" t="s">
         <v>129</v>
       </c>
-      <c r="H250" s="60" t="s">
+      <c r="H250" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I250" t="s">
@@ -10923,7 +10931,7 @@
       <c r="J250" t="s">
         <v>54</v>
       </c>
-      <c r="K250" s="63" t="s">
+      <c r="K250" s="71" t="s">
         <v>17</v>
       </c>
     </row>
@@ -10949,7 +10957,7 @@
       <c r="G251" t="s">
         <v>129</v>
       </c>
-      <c r="H251" s="60" t="s">
+      <c r="H251" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I251" t="s">
@@ -10958,7 +10966,7 @@
       <c r="J251" t="s">
         <v>11</v>
       </c>
-      <c r="K251" s="60" t="s">
+      <c r="K251" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -10984,7 +10992,7 @@
       <c r="G252" t="s">
         <v>129</v>
       </c>
-      <c r="H252" s="60" t="s">
+      <c r="H252" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I252" t="s">
@@ -10993,7 +11001,7 @@
       <c r="J252" t="s">
         <v>15</v>
       </c>
-      <c r="K252" s="60" t="s">
+      <c r="K252" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -11019,7 +11027,7 @@
       <c r="G253" t="s">
         <v>129</v>
       </c>
-      <c r="H253" s="60" t="s">
+      <c r="H253" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I253" t="s">
@@ -11028,7 +11036,7 @@
       <c r="J253" t="s">
         <v>19</v>
       </c>
-      <c r="K253" s="60" t="s">
+      <c r="K253" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -11054,7 +11062,7 @@
       <c r="G254" t="s">
         <v>129</v>
       </c>
-      <c r="H254" s="60" t="s">
+      <c r="H254" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I254" t="s">
@@ -11063,7 +11071,7 @@
       <c r="J254" t="s">
         <v>19</v>
       </c>
-      <c r="K254" s="60" t="s">
+      <c r="K254" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -11089,7 +11097,7 @@
       <c r="G255" t="s">
         <v>129</v>
       </c>
-      <c r="H255" s="60" t="s">
+      <c r="H255" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I255" t="s">
@@ -11098,7 +11106,7 @@
       <c r="J255" t="s">
         <v>15</v>
       </c>
-      <c r="K255" s="60" t="s">
+      <c r="K255" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -11124,7 +11132,7 @@
       <c r="G256" t="s">
         <v>129</v>
       </c>
-      <c r="H256" s="60" t="s">
+      <c r="H256" s="68" t="s">
         <v>17</v>
       </c>
       <c r="I256" t="s">
@@ -11133,7 +11141,7 @@
       <c r="J256" t="s">
         <v>38</v>
       </c>
-      <c r="K256" s="63" t="s">
+      <c r="K256" s="71" t="s">
         <v>17</v>
       </c>
     </row>
